--- a/outputs/bus_billing_weekly.xlsx
+++ b/outputs/bus_billing_weekly.xlsx
@@ -560,10 +560,10 @@
         <v>987.2466352409043</v>
       </c>
       <c r="D2" t="n">
-        <v>828.3117251897517</v>
+        <v>823.261015058323</v>
       </c>
       <c r="E2" t="n">
-        <v>1054.890554216738</v>
+        <v>1053.601976346768</v>
       </c>
       <c r="F2" t="n">
         <v>987.2466352409043</v>
@@ -631,10 +631,10 @@
         <v>987.1495667350204</v>
       </c>
       <c r="D3" t="n">
-        <v>949.4172787184973</v>
+        <v>945.7187729325619</v>
       </c>
       <c r="E3" t="n">
-        <v>1170.640142719037</v>
+        <v>1168.149961936108</v>
       </c>
       <c r="F3" t="n">
         <v>987.1495667350204</v>
@@ -702,10 +702,10 @@
         <v>987.0524982291365</v>
       </c>
       <c r="D4" t="n">
-        <v>984.20263251342</v>
+        <v>974.7187892827824</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.997880955735</v>
+        <v>1208.751158799129</v>
       </c>
       <c r="F4" t="n">
         <v>987.0524982291365</v>
@@ -773,10 +773,10 @@
         <v>986.9554297232525</v>
       </c>
       <c r="D5" t="n">
-        <v>947.5567623099918</v>
+        <v>942.6751009289792</v>
       </c>
       <c r="E5" t="n">
-        <v>1175.003953511677</v>
+        <v>1171.010321632126</v>
       </c>
       <c r="F5" t="n">
         <v>986.9554297232525</v>
@@ -844,10 +844,10 @@
         <v>986.8583612173686</v>
       </c>
       <c r="D6" t="n">
-        <v>914.2223045215316</v>
+        <v>914.5242873045862</v>
       </c>
       <c r="E6" t="n">
-        <v>1139.71394125337</v>
+        <v>1140.994197852345</v>
       </c>
       <c r="F6" t="n">
         <v>986.8583612173686</v>
@@ -915,10 +915,10 @@
         <v>986.7612927114845</v>
       </c>
       <c r="D7" t="n">
-        <v>930.5932921482456</v>
+        <v>931.2347258578787</v>
       </c>
       <c r="E7" t="n">
-        <v>1154.588349608436</v>
+        <v>1153.455341038929</v>
       </c>
       <c r="F7" t="n">
         <v>986.7612927114845</v>
@@ -986,10 +986,10 @@
         <v>986.6642242056007</v>
       </c>
       <c r="D8" t="n">
-        <v>963.2049645786943</v>
+        <v>955.027245347963</v>
       </c>
       <c r="E8" t="n">
-        <v>1191.234725125523</v>
+        <v>1183.807468520507</v>
       </c>
       <c r="F8" t="n">
         <v>986.6642242056007</v>
@@ -1057,10 +1057,10 @@
         <v>986.5671557140912</v>
       </c>
       <c r="D9" t="n">
-        <v>972.6260874141316</v>
+        <v>961.2318441848943</v>
       </c>
       <c r="E9" t="n">
-        <v>1190.526750836975</v>
+        <v>1191.394389613841</v>
       </c>
       <c r="F9" t="n">
         <v>986.5671557140912</v>
@@ -1128,10 +1128,10 @@
         <v>986.4700872225817</v>
       </c>
       <c r="D10" t="n">
-        <v>909.0867206643528</v>
+        <v>920.8633699133919</v>
       </c>
       <c r="E10" t="n">
-        <v>1143.01685787279</v>
+        <v>1149.435944544071</v>
       </c>
       <c r="F10" t="n">
         <v>986.4700872225817</v>
@@ -1199,10 +1199,10 @@
         <v>986.3730187310722</v>
       </c>
       <c r="D11" t="n">
-        <v>887.1715342639021</v>
+        <v>888.932610413292</v>
       </c>
       <c r="E11" t="n">
-        <v>1104.124347302402</v>
+        <v>1109.778199887562</v>
       </c>
       <c r="F11" t="n">
         <v>986.3730187310722</v>
@@ -1270,10 +1270,10 @@
         <v>986.2759502395626</v>
       </c>
       <c r="D12" t="n">
-        <v>890.7707372273288</v>
+        <v>895.9530781112576</v>
       </c>
       <c r="E12" t="n">
-        <v>1115.660218830102</v>
+        <v>1112.512520959259</v>
       </c>
       <c r="F12" t="n">
         <v>986.2759502395626</v>
@@ -1341,10 +1341,10 @@
         <v>986.1788817480531</v>
       </c>
       <c r="D13" t="n">
-        <v>902.3766174173927</v>
+        <v>908.822342147947</v>
       </c>
       <c r="E13" t="n">
-        <v>1130.699812193241</v>
+        <v>1136.778211464507</v>
       </c>
       <c r="F13" t="n">
         <v>986.1788817480531</v>
@@ -1412,10 +1412,10 @@
         <v>986.0818132336259</v>
       </c>
       <c r="D14" t="n">
-        <v>909.2862637437077</v>
+        <v>915.9833498859946</v>
       </c>
       <c r="E14" t="n">
-        <v>1127.346123760094</v>
+        <v>1135.377958482662</v>
       </c>
       <c r="F14" t="n">
         <v>986.0818132336259</v>
@@ -1483,10 +1483,10 @@
         <v>985.9847447191988</v>
       </c>
       <c r="D15" t="n">
-        <v>883.5413248910529</v>
+        <v>887.6062166845065</v>
       </c>
       <c r="E15" t="n">
-        <v>1106.318258641635</v>
+        <v>1113.803441775025</v>
       </c>
       <c r="F15" t="n">
         <v>985.9847447191988</v>
@@ -1554,10 +1554,10 @@
         <v>985.8876762047718</v>
       </c>
       <c r="D16" t="n">
-        <v>871.388914846311</v>
+        <v>868.9783357071791</v>
       </c>
       <c r="E16" t="n">
-        <v>1091.01194410005</v>
+        <v>1093.24202655402</v>
       </c>
       <c r="F16" t="n">
         <v>985.8876762047718</v>
@@ -1625,10 +1625,10 @@
         <v>985.7906076903447</v>
       </c>
       <c r="D17" t="n">
-        <v>903.5732757919326</v>
+        <v>900.5909268615543</v>
       </c>
       <c r="E17" t="n">
-        <v>1126.201870397159</v>
+        <v>1135.691935497942</v>
       </c>
       <c r="F17" t="n">
         <v>985.7906076903447</v>
@@ -1696,10 +1696,10 @@
         <v>985.6935391759174</v>
       </c>
       <c r="D18" t="n">
-        <v>924.3100679950221</v>
+        <v>932.9095359480973</v>
       </c>
       <c r="E18" t="n">
-        <v>1158.824600449831</v>
+        <v>1156.027910164369</v>
       </c>
       <c r="F18" t="n">
         <v>985.6935391759174</v>
@@ -1767,10 +1767,10 @@
         <v>985.5964706614903</v>
       </c>
       <c r="D19" t="n">
-        <v>921.7451595502209</v>
+        <v>923.8865553285817</v>
       </c>
       <c r="E19" t="n">
-        <v>1151.033164743659</v>
+        <v>1154.286151317652</v>
       </c>
       <c r="F19" t="n">
         <v>985.5964706614903</v>
@@ -1838,10 +1838,10 @@
         <v>985.499401932282</v>
       </c>
       <c r="D20" t="n">
-        <v>848.7877330933873</v>
+        <v>866.0695278138855</v>
       </c>
       <c r="E20" t="n">
-        <v>1081.353070721406</v>
+        <v>1087.558601323034</v>
       </c>
       <c r="F20" t="n">
         <v>985.499401932282</v>
@@ -1909,10 +1909,10 @@
         <v>985.4023332030737</v>
       </c>
       <c r="D21" t="n">
-        <v>786.9065594627959</v>
+        <v>799.7862732574195</v>
       </c>
       <c r="E21" t="n">
-        <v>1013.230060392452</v>
+        <v>1021.924204199207</v>
       </c>
       <c r="F21" t="n">
         <v>985.4023332030737</v>
@@ -1980,10 +1980,10 @@
         <v>985.3052644738653</v>
       </c>
       <c r="D22" t="n">
-        <v>789.70299623413</v>
+        <v>783.041154701879</v>
       </c>
       <c r="E22" t="n">
-        <v>1006.780774743203</v>
+        <v>1014.887102849377</v>
       </c>
       <c r="F22" t="n">
         <v>985.3052644738653</v>
@@ -2051,10 +2051,10 @@
         <v>985.208195744657</v>
       </c>
       <c r="D23" t="n">
-        <v>827.020303846121</v>
+        <v>817.6598166210603</v>
       </c>
       <c r="E23" t="n">
-        <v>1044.576497999547</v>
+        <v>1054.578777623244</v>
       </c>
       <c r="F23" t="n">
         <v>985.208195744657</v>
@@ -2122,10 +2122,10 @@
         <v>985.1111270154487</v>
       </c>
       <c r="D24" t="n">
-        <v>854.7927548535019</v>
+        <v>856.3189610163176</v>
       </c>
       <c r="E24" t="n">
-        <v>1084.530398399563</v>
+        <v>1078.501069116162</v>
       </c>
       <c r="F24" t="n">
         <v>985.1111270154487</v>
@@ -2193,10 +2193,10 @@
         <v>985.0140582317906</v>
       </c>
       <c r="D25" t="n">
-        <v>851.7213495798786</v>
+        <v>846.7329378862146</v>
       </c>
       <c r="E25" t="n">
-        <v>1078.098565612801</v>
+        <v>1072.863481954786</v>
       </c>
       <c r="F25" t="n">
         <v>985.0140582317906</v>
@@ -2264,10 +2264,10 @@
         <v>984.9169894481327</v>
       </c>
       <c r="D26" t="n">
-        <v>807.4585160396941</v>
+        <v>819.4144965756558</v>
       </c>
       <c r="E26" t="n">
-        <v>1040.576883450205</v>
+        <v>1042.046087701607</v>
       </c>
       <c r="F26" t="n">
         <v>984.9169894481327</v>
@@ -2335,10 +2335,10 @@
         <v>984.8199206644746</v>
       </c>
       <c r="D27" t="n">
-        <v>814.5240402496878</v>
+        <v>808.3883006930816</v>
       </c>
       <c r="E27" t="n">
-        <v>1034.995958989546</v>
+        <v>1031.102771027861</v>
       </c>
       <c r="F27" t="n">
         <v>984.8199206644746</v>
@@ -2406,10 +2406,10 @@
         <v>984.7228518808166</v>
       </c>
       <c r="D28" t="n">
-        <v>840.7506075091302</v>
+        <v>837.4839745269668</v>
       </c>
       <c r="E28" t="n">
-        <v>1059.600444426867</v>
+        <v>1060.625691254097</v>
       </c>
       <c r="F28" t="n">
         <v>984.7228518808166</v>
@@ -2477,10 +2477,10 @@
         <v>984.6257830971585</v>
       </c>
       <c r="D29" t="n">
-        <v>854.1511277528124</v>
+        <v>864.5359781978003</v>
       </c>
       <c r="E29" t="n">
-        <v>1087.612476475198</v>
+        <v>1083.911112533566</v>
       </c>
       <c r="F29" t="n">
         <v>984.6257830971585</v>
@@ -2548,10 +2548,10 @@
         <v>984.5287143135005</v>
       </c>
       <c r="D30" t="n">
-        <v>874.636031290356</v>
+        <v>877.0893194738258</v>
       </c>
       <c r="E30" t="n">
-        <v>1093.92247564448</v>
+        <v>1100.681643914278</v>
       </c>
       <c r="F30" t="n">
         <v>984.5287143135005</v>
@@ -2619,10 +2619,10 @@
         <v>984.431641450117</v>
       </c>
       <c r="D31" t="n">
-        <v>851.3705636177584</v>
+        <v>856.696404002019</v>
       </c>
       <c r="E31" t="n">
-        <v>1085.251362760483</v>
+        <v>1083.581927031137</v>
       </c>
       <c r="F31" t="n">
         <v>984.431641450117</v>
@@ -2690,10 +2690,10 @@
         <v>984.3345685867333</v>
       </c>
       <c r="D32" t="n">
-        <v>865.0736078828351</v>
+        <v>842.6615717410173</v>
       </c>
       <c r="E32" t="n">
-        <v>1081.029317299659</v>
+        <v>1091.021500824374</v>
       </c>
       <c r="F32" t="n">
         <v>984.3345685867333</v>
@@ -2761,10 +2761,10 @@
         <v>984.2374957233498</v>
       </c>
       <c r="D33" t="n">
-        <v>858.6353972268124</v>
+        <v>858.2749809825372</v>
       </c>
       <c r="E33" t="n">
-        <v>1089.234943890192</v>
+        <v>1081.135988758371</v>
       </c>
       <c r="F33" t="n">
         <v>984.2374957233498</v>
@@ -2832,10 +2832,10 @@
         <v>984.1404228599661</v>
       </c>
       <c r="D34" t="n">
-        <v>853.1346528847665</v>
+        <v>845.1447346192929</v>
       </c>
       <c r="E34" t="n">
-        <v>1081.170648006653</v>
+        <v>1072.516892062442</v>
       </c>
       <c r="F34" t="n">
         <v>984.1404228599661</v>
@@ -2903,10 +2903,10 @@
         <v>984.0433499965825</v>
       </c>
       <c r="D35" t="n">
-        <v>803.6508449433129</v>
+        <v>804.3503856715121</v>
       </c>
       <c r="E35" t="n">
-        <v>1027.850696097161</v>
+        <v>1028.550511685955</v>
       </c>
       <c r="F35" t="n">
         <v>984.0433499965825</v>
@@ -2974,10 +2974,10 @@
         <v>983.9462765056475</v>
       </c>
       <c r="D36" t="n">
-        <v>761.9737681113312</v>
+        <v>756.3356547611559</v>
       </c>
       <c r="E36" t="n">
-        <v>986.2664975365086</v>
+        <v>989.628073258531</v>
       </c>
       <c r="F36" t="n">
         <v>983.9462765056475</v>
@@ -3045,10 +3045,10 @@
         <v>983.8492030147124</v>
       </c>
       <c r="D37" t="n">
-        <v>775.4637119520213</v>
+        <v>779.865557515463</v>
       </c>
       <c r="E37" t="n">
-        <v>1003.849397903393</v>
+        <v>998.794759481445</v>
       </c>
       <c r="F37" t="n">
         <v>983.8492030147124</v>
@@ -3116,10 +3116,10 @@
         <v>983.7521295237773</v>
       </c>
       <c r="D38" t="n">
-        <v>851.7450918094469</v>
+        <v>860.3485444744972</v>
       </c>
       <c r="E38" t="n">
-        <v>1084.853074545987</v>
+        <v>1081.412754693992</v>
       </c>
       <c r="F38" t="n">
         <v>983.7521295237773</v>
@@ -3187,10 +3187,10 @@
         <v>983.6550560328423</v>
       </c>
       <c r="D39" t="n">
-        <v>935.8185424351407</v>
+        <v>924.3852099097423</v>
       </c>
       <c r="E39" t="n">
-        <v>1150.523429124191</v>
+        <v>1153.286883534517</v>
       </c>
       <c r="F39" t="n">
         <v>983.6550560328423</v>
@@ -3258,10 +3258,10 @@
         <v>983.5579825419071</v>
       </c>
       <c r="D40" t="n">
-        <v>938.6794990978188</v>
+        <v>935.3390170397208</v>
       </c>
       <c r="E40" t="n">
-        <v>1164.739144814083</v>
+        <v>1168.118009887853</v>
       </c>
       <c r="F40" t="n">
         <v>983.5579825419071</v>
@@ -3329,10 +3329,10 @@
         <v>983.4609090509721</v>
       </c>
       <c r="D41" t="n">
-        <v>892.5930105799079</v>
+        <v>899.5415551766068</v>
       </c>
       <c r="E41" t="n">
-        <v>1133.876425503521</v>
+        <v>1124.959533674513</v>
       </c>
       <c r="F41" t="n">
         <v>983.4609090509721</v>
@@ -3400,10 +3400,10 @@
         <v>983.362059039227</v>
       </c>
       <c r="D42" t="n">
-        <v>884.1311780152333</v>
+        <v>876.076935741146</v>
       </c>
       <c r="E42" t="n">
-        <v>1096.415580655974</v>
+        <v>1096.54210941549</v>
       </c>
       <c r="F42" t="n">
         <v>983.362059039227</v>
@@ -3471,10 +3471,10 @@
         <v>983.2632090274817</v>
       </c>
       <c r="D43" t="n">
-        <v>897.5467560349065</v>
+        <v>914.5325438968064</v>
       </c>
       <c r="E43" t="n">
-        <v>1133.03825476909</v>
+        <v>1130.55827695294</v>
       </c>
       <c r="F43" t="n">
         <v>983.2632090274817</v>
@@ -3542,10 +3542,10 @@
         <v>983.1643590157365</v>
       </c>
       <c r="D44" t="n">
-        <v>946.491405151746</v>
+        <v>945.8328992682671</v>
       </c>
       <c r="E44" t="n">
-        <v>1173.248678013615</v>
+        <v>1163.980723476831</v>
       </c>
       <c r="F44" t="n">
         <v>983.1643590157365</v>
@@ -3613,10 +3613,10 @@
         <v>983.0655090039913</v>
       </c>
       <c r="D45" t="n">
-        <v>930.9699969805595</v>
+        <v>919.0199237654571</v>
       </c>
       <c r="E45" t="n">
-        <v>1147.930108594109</v>
+        <v>1157.47203246604</v>
       </c>
       <c r="F45" t="n">
         <v>983.0655090039913</v>
@@ -3684,10 +3684,10 @@
         <v>982.966658992246</v>
       </c>
       <c r="D46" t="n">
-        <v>854.2539902903479</v>
+        <v>852.3266588878422</v>
       </c>
       <c r="E46" t="n">
-        <v>1070.179710125663</v>
+        <v>1074.081042334486</v>
       </c>
       <c r="F46" t="n">
         <v>982.966658992246</v>
@@ -3755,10 +3755,10 @@
         <v>982.8667576267388</v>
       </c>
       <c r="D47" t="n">
-        <v>802.4548136658312</v>
+        <v>805.0713321557224</v>
       </c>
       <c r="E47" t="n">
-        <v>1038.858178019606</v>
+        <v>1037.159927038835</v>
       </c>
       <c r="F47" t="n">
         <v>982.8667576267388</v>
@@ -3826,10 +3826,10 @@
         <v>982.7668562612314</v>
       </c>
       <c r="D48" t="n">
-        <v>814.0224562369968</v>
+        <v>817.1886300960749</v>
       </c>
       <c r="E48" t="n">
-        <v>1046.58293733128</v>
+        <v>1051.400288807353</v>
       </c>
       <c r="F48" t="n">
         <v>982.7668562612314</v>
@@ -3897,10 +3897,10 @@
         <v>982.6669548957241</v>
       </c>
       <c r="D49" t="n">
-        <v>872.9810121422527</v>
+        <v>857.6725663672711</v>
       </c>
       <c r="E49" t="n">
-        <v>1096.369360225781</v>
+        <v>1093.466466677333</v>
       </c>
       <c r="F49" t="n">
         <v>982.6669548957241</v>
@@ -3968,10 +3968,10 @@
         <v>982.5670535302169</v>
       </c>
       <c r="D50" t="n">
-        <v>866.0816343783747</v>
+        <v>865.4233515737085</v>
       </c>
       <c r="E50" t="n">
-        <v>1079.834170092122</v>
+        <v>1083.651101402262</v>
       </c>
       <c r="F50" t="n">
         <v>982.5670535302169</v>
@@ -4039,10 +4039,10 @@
         <v>982.4671521647094</v>
       </c>
       <c r="D51" t="n">
-        <v>779.445259277501</v>
+        <v>772.9139533205508</v>
       </c>
       <c r="E51" t="n">
-        <v>1001.263781143996</v>
+        <v>1001.53807668769</v>
       </c>
       <c r="F51" t="n">
         <v>982.4671521647094</v>
@@ -4110,10 +4110,10 @@
         <v>982.3672507992021</v>
       </c>
       <c r="D52" t="n">
-        <v>686.0581723128661</v>
+        <v>685.6341627935216</v>
       </c>
       <c r="E52" t="n">
-        <v>919.2705923457798</v>
+        <v>906.1598633407585</v>
       </c>
       <c r="F52" t="n">
         <v>982.3672507992021</v>
@@ -4181,10 +4181,10 @@
         <v>982.2668390116684</v>
       </c>
       <c r="D53" t="n">
-        <v>685.6185452634434</v>
+        <v>688.5974703997737</v>
       </c>
       <c r="E53" t="n">
-        <v>917.5889326144863</v>
+        <v>916.3042284415714</v>
       </c>
       <c r="F53" t="n">
         <v>982.2668390116684</v>
@@ -4252,10 +4252,10 @@
         <v>982.1664272241346</v>
       </c>
       <c r="D54" t="n">
-        <v>802.3511677415053</v>
+        <v>799.1449605301481</v>
       </c>
       <c r="E54" t="n">
-        <v>1019.574263418511</v>
+        <v>1024.38798581033</v>
       </c>
       <c r="F54" t="n">
         <v>982.1664272241346</v>
@@ -4323,10 +4323,10 @@
         <v>982.066015436601</v>
       </c>
       <c r="D55" t="n">
-        <v>921.4875300731497</v>
+        <v>921.1696393267745</v>
       </c>
       <c r="E55" t="n">
-        <v>1148.651681415153</v>
+        <v>1149.868079737029</v>
       </c>
       <c r="F55" t="n">
         <v>982.066015436601</v>
@@ -4394,10 +4394,10 @@
         <v>981.9656036490671</v>
       </c>
       <c r="D56" t="n">
-        <v>972.4681530530695</v>
+        <v>977.0393452800168</v>
       </c>
       <c r="E56" t="n">
-        <v>1205.420595996066</v>
+        <v>1200.826844454783</v>
       </c>
       <c r="F56" t="n">
         <v>981.9656036490671</v>
@@ -4465,10 +4465,10 @@
         <v>981.8651918615334</v>
       </c>
       <c r="D57" t="n">
-        <v>943.5515592815455</v>
+        <v>949.0370935340262</v>
       </c>
       <c r="E57" t="n">
-        <v>1172.914025731842</v>
+        <v>1177.839448375283</v>
       </c>
       <c r="F57" t="n">
         <v>981.8651918615334</v>
@@ -4536,10 +4536,10 @@
         <v>981.7646583438998</v>
       </c>
       <c r="D58" t="n">
-        <v>909.1518027906279</v>
+        <v>902.1867988551115</v>
       </c>
       <c r="E58" t="n">
-        <v>1140.049304267684</v>
+        <v>1138.074417924907</v>
       </c>
       <c r="F58" t="n">
         <v>981.7646583438998</v>
@@ -4607,10 +4607,10 @@
         <v>981.6641248262661</v>
       </c>
       <c r="D59" t="n">
-        <v>912.2903358752235</v>
+        <v>924.5672776293372</v>
       </c>
       <c r="E59" t="n">
-        <v>1152.731638338327</v>
+        <v>1138.411800318513</v>
       </c>
       <c r="F59" t="n">
         <v>981.6641248262661</v>
@@ -4678,10 +4678,10 @@
         <v>981.5635913086323</v>
       </c>
       <c r="D60" t="n">
-        <v>951.5448770606993</v>
+        <v>944.5554476530837</v>
       </c>
       <c r="E60" t="n">
-        <v>1182.818835602356</v>
+        <v>1180.301199706105</v>
       </c>
       <c r="F60" t="n">
         <v>981.5635913086323</v>
@@ -4749,10 +4749,10 @@
         <v>981.4630577909986</v>
       </c>
       <c r="D61" t="n">
-        <v>960.718174024434</v>
+        <v>967.3005882923978</v>
       </c>
       <c r="E61" t="n">
-        <v>1186.679414107623</v>
+        <v>1189.891499893436</v>
       </c>
       <c r="F61" t="n">
         <v>981.4630577909986</v>
@@ -4820,10 +4820,10 @@
         <v>981.3625242733649</v>
       </c>
       <c r="D62" t="n">
-        <v>921.5559359670938</v>
+        <v>924.9193848804472</v>
       </c>
       <c r="E62" t="n">
-        <v>1155.903708471144</v>
+        <v>1146.180217432298</v>
       </c>
       <c r="F62" t="n">
         <v>981.3625242733649</v>
@@ -4891,10 +4891,10 @@
         <v>981.2619907557313</v>
       </c>
       <c r="D63" t="n">
-        <v>882.9283140756551</v>
+        <v>874.7840704482101</v>
       </c>
       <c r="E63" t="n">
-        <v>1115.212498923037</v>
+        <v>1109.535401291022</v>
       </c>
       <c r="F63" t="n">
         <v>981.2619907557313</v>
@@ -4962,10 +4962,10 @@
         <v>981.0822969683043</v>
       </c>
       <c r="D64" t="n">
-        <v>872.9787178604668</v>
+        <v>871.0079783278203</v>
       </c>
       <c r="E64" t="n">
-        <v>1097.063784919713</v>
+        <v>1102.887796873757</v>
       </c>
       <c r="F64" t="n">
         <v>981.0822969683043</v>
@@ -5033,10 +5033,10 @@
         <v>980.9026031808772</v>
       </c>
       <c r="D65" t="n">
-        <v>895.51570185348</v>
+        <v>907.7585634785722</v>
       </c>
       <c r="E65" t="n">
-        <v>1123.970843994136</v>
+        <v>1132.354448459461</v>
       </c>
       <c r="F65" t="n">
         <v>980.9026031808772</v>
@@ -5104,10 +5104,10 @@
         <v>980.7229093934504</v>
       </c>
       <c r="D66" t="n">
-        <v>904.0157110260268</v>
+        <v>897.6945501579912</v>
       </c>
       <c r="E66" t="n">
-        <v>1131.956746788844</v>
+        <v>1125.346825048676</v>
       </c>
       <c r="F66" t="n">
         <v>980.7229093934504</v>
@@ -5175,10 +5175,10 @@
         <v>980.5432156060234</v>
       </c>
       <c r="D67" t="n">
-        <v>882.2242591743259</v>
+        <v>882.924787081581</v>
       </c>
       <c r="E67" t="n">
-        <v>1109.072482371632</v>
+        <v>1114.666970550625</v>
       </c>
       <c r="F67" t="n">
         <v>980.5432156060234</v>
@@ -5246,10 +5246,10 @@
         <v>980.3635218185964</v>
       </c>
       <c r="D68" t="n">
-        <v>867.9029505562524</v>
+        <v>870.5225176037011</v>
       </c>
       <c r="E68" t="n">
-        <v>1097.53117146732</v>
+        <v>1087.769485122899</v>
       </c>
       <c r="F68" t="n">
         <v>980.3635218185964</v>
@@ -5317,10 +5317,10 @@
         <v>979.9882131354992</v>
       </c>
       <c r="D69" t="n">
-        <v>896.2774993872188</v>
+        <v>890.3716095459586</v>
       </c>
       <c r="E69" t="n">
-        <v>1116.891954715965</v>
+        <v>1127.12425845074</v>
       </c>
       <c r="F69" t="n">
         <v>979.9882131354992</v>
@@ -5388,10 +5388,10 @@
         <v>979.6129044524021</v>
       </c>
       <c r="D70" t="n">
-        <v>925.7059678908323</v>
+        <v>935.4414516543038</v>
       </c>
       <c r="E70" t="n">
-        <v>1157.437754386799</v>
+        <v>1166.236913831139</v>
       </c>
       <c r="F70" t="n">
         <v>979.6129044524021</v>
@@ -5459,10 +5459,10 @@
         <v>979.2375957693047</v>
       </c>
       <c r="D71" t="n">
-        <v>928.4804840706527</v>
+        <v>919.2846024378775</v>
       </c>
       <c r="E71" t="n">
-        <v>1155.897340951439</v>
+        <v>1152.85243773264</v>
       </c>
       <c r="F71" t="n">
         <v>979.2375957693047</v>
@@ -5530,10 +5530,10 @@
         <v>978.8622870862075</v>
       </c>
       <c r="D72" t="n">
-        <v>879.8456813227589</v>
+        <v>866.1967607869676</v>
       </c>
       <c r="E72" t="n">
-        <v>1100.123202174111</v>
+        <v>1094.039030296487</v>
       </c>
       <c r="F72" t="n">
         <v>978.8622870862075</v>
@@ -5601,10 +5601,10 @@
         <v>978.4869784031104</v>
       </c>
       <c r="D73" t="n">
-        <v>793.097960237626</v>
+        <v>798.1685685541598</v>
       </c>
       <c r="E73" t="n">
-        <v>1014.963313270237</v>
+        <v>1025.597928379927</v>
       </c>
       <c r="F73" t="n">
         <v>978.4869784031104</v>
@@ -5672,10 +5672,10 @@
         <v>978.111669720013</v>
       </c>
       <c r="D74" t="n">
-        <v>768.4702646783268</v>
+        <v>786.2608962495308</v>
       </c>
       <c r="E74" t="n">
-        <v>992.275834207881</v>
+        <v>1002.266932581956</v>
       </c>
       <c r="F74" t="n">
         <v>978.111669720013</v>
@@ -5743,10 +5743,10 @@
         <v>977.4276924404063</v>
       </c>
       <c r="D75" t="n">
-        <v>803.6886571894104</v>
+        <v>814.67703613299</v>
       </c>
       <c r="E75" t="n">
-        <v>1034.498233341051</v>
+        <v>1038.898044874967</v>
       </c>
       <c r="F75" t="n">
         <v>977.4276924404063</v>
@@ -5814,10 +5814,10 @@
         <v>976.7437151607996</v>
       </c>
       <c r="D76" t="n">
-        <v>843.0512712708301</v>
+        <v>845.0226885225075</v>
       </c>
       <c r="E76" t="n">
-        <v>1068.37318018439</v>
+        <v>1072.922014067386</v>
       </c>
       <c r="F76" t="n">
         <v>976.7437151607996</v>
@@ -5885,10 +5885,10 @@
         <v>976.0597378811929</v>
       </c>
       <c r="D77" t="n">
-        <v>840.078743131519</v>
+        <v>847.5615105387303</v>
       </c>
       <c r="E77" t="n">
-        <v>1074.341361711181</v>
+        <v>1078.056910051535</v>
       </c>
       <c r="F77" t="n">
         <v>976.0597378811929</v>
@@ -5956,10 +5956,10 @@
         <v>975.3757606015863</v>
       </c>
       <c r="D78" t="n">
-        <v>821.1934622702323</v>
+        <v>809.6641087503616</v>
       </c>
       <c r="E78" t="n">
-        <v>1041.052125528644</v>
+        <v>1036.030051141157</v>
       </c>
       <c r="F78" t="n">
         <v>975.3757606015863</v>
@@ -6027,10 +6027,10 @@
         <v>974.6917833219796</v>
       </c>
       <c r="D79" t="n">
-        <v>800.6652084702893</v>
+        <v>798.4394228903302</v>
       </c>
       <c r="E79" t="n">
-        <v>1021.588979477633</v>
+        <v>1015.833545995422</v>
       </c>
       <c r="F79" t="n">
         <v>974.6917833219796</v>
@@ -6098,10 +6098,10 @@
         <v>973.6785678644985</v>
       </c>
       <c r="D80" t="n">
-        <v>810.5834402460213</v>
+        <v>817.2452773380506</v>
       </c>
       <c r="E80" t="n">
-        <v>1046.768253827448</v>
+        <v>1047.966023901931</v>
       </c>
       <c r="F80" t="n">
         <v>973.6785678644985</v>
@@ -6169,10 +6169,10 @@
         <v>972.6653524070173</v>
       </c>
       <c r="D81" t="n">
-        <v>852.6296659705281</v>
+        <v>847.1731144273693</v>
       </c>
       <c r="E81" t="n">
-        <v>1074.128208601164</v>
+        <v>1071.821306276384</v>
       </c>
       <c r="F81" t="n">
         <v>972.6653524070173</v>
@@ -6240,10 +6240,10 @@
         <v>971.652136949536</v>
       </c>
       <c r="D82" t="n">
-        <v>867.1225024107497</v>
+        <v>862.1600330432315</v>
       </c>
       <c r="E82" t="n">
-        <v>1086.348724584554</v>
+        <v>1092.241462609906</v>
       </c>
       <c r="F82" t="n">
         <v>971.652136949536</v>
@@ -6311,10 +6311,10 @@
         <v>970.6389214920549</v>
       </c>
       <c r="D83" t="n">
-        <v>838.1642099664516</v>
+        <v>844.5437201659278</v>
       </c>
       <c r="E83" t="n">
-        <v>1070.432148045865</v>
+        <v>1066.651844327467</v>
       </c>
       <c r="F83" t="n">
         <v>970.6389214920549</v>
@@ -6382,10 +6382,10 @@
         <v>969.6257060345737</v>
       </c>
       <c r="D84" t="n">
-        <v>840.5573351859772</v>
+        <v>833.1793125767929</v>
       </c>
       <c r="E84" t="n">
-        <v>1064.731083795682</v>
+        <v>1061.255300263435</v>
       </c>
       <c r="F84" t="n">
         <v>969.6257060345737</v>
@@ -6453,10 +6453,10 @@
         <v>968.6124905770926</v>
       </c>
       <c r="D85" t="n">
-        <v>842.2652761379005</v>
+        <v>858.7989360123205</v>
       </c>
       <c r="E85" t="n">
-        <v>1072.431759980977</v>
+        <v>1085.453698169647</v>
       </c>
       <c r="F85" t="n">
         <v>968.6124905770926</v>
@@ -6524,10 +6524,10 @@
         <v>967.3222267390656</v>
       </c>
       <c r="D86" t="n">
-        <v>836.5655409431229</v>
+        <v>836.6836256894198</v>
       </c>
       <c r="E86" t="n">
-        <v>1064.570188395303</v>
+        <v>1065.636829111589</v>
       </c>
       <c r="F86" t="n">
         <v>967.3222267390656</v>
@@ -6595,10 +6595,10 @@
         <v>966.0319629010388</v>
       </c>
       <c r="D87" t="n">
-        <v>797.8998430640248</v>
+        <v>795.332900335912</v>
       </c>
       <c r="E87" t="n">
-        <v>1022.757857863734</v>
+        <v>1016.291503311368</v>
       </c>
       <c r="F87" t="n">
         <v>966.0319629010388</v>
@@ -6666,10 +6666,10 @@
         <v>964.7416990630119</v>
       </c>
       <c r="D88" t="n">
-        <v>733.20728811809</v>
+        <v>739.2046851454504</v>
       </c>
       <c r="E88" t="n">
-        <v>971.9243133195941</v>
+        <v>970.6790835331891</v>
       </c>
       <c r="F88" t="n">
         <v>964.7416990630119</v>
@@ -6737,10 +6737,10 @@
         <v>963.4514352249851</v>
       </c>
       <c r="D89" t="n">
-        <v>749.1022037718327</v>
+        <v>747.8717295711274</v>
       </c>
       <c r="E89" t="n">
-        <v>981.0691311109281</v>
+        <v>978.267769311349</v>
       </c>
       <c r="F89" t="n">
         <v>963.4514352249851</v>
@@ -6808,10 +6808,10 @@
         <v>962.1611713869581</v>
       </c>
       <c r="D90" t="n">
-        <v>818.0298768102016</v>
+        <v>816.5821125779744</v>
       </c>
       <c r="E90" t="n">
-        <v>1046.620540920625</v>
+        <v>1054.724904243599</v>
       </c>
       <c r="F90" t="n">
         <v>962.1611713869581</v>
@@ -6879,10 +6879,10 @@
         <v>960.6617112806733</v>
       </c>
       <c r="D91" t="n">
-        <v>901.883278616053</v>
+        <v>890.3057676970167</v>
       </c>
       <c r="E91" t="n">
-        <v>1126.70605851961</v>
+        <v>1120.499451415925</v>
       </c>
       <c r="F91" t="n">
         <v>960.6617112806733</v>
@@ -6950,10 +6950,10 @@
         <v>959.1622511743888</v>
       </c>
       <c r="D92" t="n">
-        <v>912.2703971194233</v>
+        <v>915.2422430449868</v>
       </c>
       <c r="E92" t="n">
-        <v>1143.185976550352</v>
+        <v>1141.466005248579</v>
       </c>
       <c r="F92" t="n">
         <v>959.1622511743888</v>
@@ -7021,10 +7021,10 @@
         <v>957.662791068104</v>
       </c>
       <c r="D93" t="n">
-        <v>878.2130385677455</v>
+        <v>880.8591700234065</v>
       </c>
       <c r="E93" t="n">
-        <v>1114.274305224172</v>
+        <v>1103.182504072223</v>
       </c>
       <c r="F93" t="n">
         <v>957.662791068104</v>
@@ -7092,10 +7092,10 @@
         <v>956.1633309618192</v>
       </c>
       <c r="D94" t="n">
-        <v>836.2069766995679</v>
+        <v>855.2921862059801</v>
       </c>
       <c r="E94" t="n">
-        <v>1077.790216972054</v>
+        <v>1073.798192259789</v>
       </c>
       <c r="F94" t="n">
         <v>956.1633309618192</v>
@@ -7163,10 +7163,10 @@
         <v>954.6638708555345</v>
       </c>
       <c r="D95" t="n">
-        <v>863.1055062833848</v>
+        <v>867.0215072358815</v>
       </c>
       <c r="E95" t="n">
-        <v>1090.567433749168</v>
+        <v>1095.110820609023</v>
       </c>
       <c r="F95" t="n">
         <v>954.6638708555345</v>
@@ -7234,10 +7234,10 @@
         <v>953.1644107492496</v>
       </c>
       <c r="D96" t="n">
-        <v>906.230008407179</v>
+        <v>906.548402155435</v>
       </c>
       <c r="E96" t="n">
-        <v>1132.789708714844</v>
+        <v>1136.925546880097</v>
       </c>
       <c r="F96" t="n">
         <v>953.1644107492496</v>
@@ -7305,10 +7305,10 @@
         <v>951.5537669877264</v>
       </c>
       <c r="D97" t="n">
-        <v>896.3058083821394</v>
+        <v>900.031696940353</v>
       </c>
       <c r="E97" t="n">
-        <v>1120.537970995887</v>
+        <v>1128.840599985233</v>
       </c>
       <c r="F97" t="n">
         <v>951.5537669877264</v>
@@ -7376,10 +7376,10 @@
         <v>949.9431232262032</v>
       </c>
       <c r="D98" t="n">
-        <v>834.9380980223442</v>
+        <v>832.308605271318</v>
       </c>
       <c r="E98" t="n">
-        <v>1056.190369841135</v>
+        <v>1061.35962867307</v>
       </c>
       <c r="F98" t="n">
         <v>949.9431232262032</v>
@@ -7447,10 +7447,10 @@
         <v>948.3324794646799</v>
       </c>
       <c r="D99" t="n">
-        <v>778.399695819024</v>
+        <v>783.9685639701527</v>
       </c>
       <c r="E99" t="n">
-        <v>1003.081627653645</v>
+        <v>1004.497043828246</v>
       </c>
       <c r="F99" t="n">
         <v>948.3324794646799</v>
@@ -7518,10 +7518,10 @@
         <v>946.7218357031566</v>
       </c>
       <c r="D100" t="n">
-        <v>774.4162161169093</v>
+        <v>768.7149083210744</v>
       </c>
       <c r="E100" t="n">
-        <v>1003.860111850891</v>
+        <v>1003.628413121391</v>
       </c>
       <c r="F100" t="n">
         <v>946.7218357031566</v>
@@ -7589,10 +7589,10 @@
         <v>945.1111919416333</v>
       </c>
       <c r="D101" t="n">
-        <v>810.4547363693555</v>
+        <v>822.4005220577626</v>
       </c>
       <c r="E101" t="n">
-        <v>1046.123048341311</v>
+        <v>1046.714145587406</v>
       </c>
       <c r="F101" t="n">
         <v>945.1111919416333</v>
@@ -7660,10 +7660,10 @@
         <v>943.5004344215796</v>
       </c>
       <c r="D102" t="n">
-        <v>837.0737579201486</v>
+        <v>819.76704989062</v>
       </c>
       <c r="E102" t="n">
-        <v>1052.079772862267</v>
+        <v>1050.159500643856</v>
       </c>
       <c r="F102" t="n">
         <v>943.5004344215796</v>
@@ -7731,10 +7731,10 @@
         <v>941.8896769015259</v>
       </c>
       <c r="D103" t="n">
-        <v>757.8347010088513</v>
+        <v>752.7856482683638</v>
       </c>
       <c r="E103" t="n">
-        <v>978.7888834688787</v>
+        <v>975.4311841051672</v>
       </c>
       <c r="F103" t="n">
         <v>941.8896769015259</v>
@@ -7802,10 +7802,10 @@
         <v>940.2789193814723</v>
       </c>
       <c r="D104" t="n">
-        <v>654.4228878136599</v>
+        <v>657.4175650281253</v>
       </c>
       <c r="E104" t="n">
-        <v>888.8038075037362</v>
+        <v>882.43088644666</v>
       </c>
       <c r="F104" t="n">
         <v>940.2789193814723</v>
@@ -7873,10 +7873,10 @@
         <v>938.6681618614185</v>
       </c>
       <c r="D105" t="n">
-        <v>642.2095043738505</v>
+        <v>633.3318954656255</v>
       </c>
       <c r="E105" t="n">
-        <v>863.3195530016785</v>
+        <v>866.2983421831033</v>
       </c>
       <c r="F105" t="n">
         <v>938.6681618614185</v>
@@ -7944,10 +7944,10 @@
         <v>937.0574043413648</v>
       </c>
       <c r="D106" t="n">
-        <v>731.3801178542312</v>
+        <v>732.3774823385836</v>
       </c>
       <c r="E106" t="n">
-        <v>949.834137314193</v>
+        <v>948.0242307582197</v>
       </c>
       <c r="F106" t="n">
         <v>937.0574043413648</v>
@@ -8015,10 +8015,10 @@
         <v>935.4466468213111</v>
       </c>
       <c r="D107" t="n">
-        <v>861.8101999560268</v>
+        <v>856.0486100521722</v>
       </c>
       <c r="E107" t="n">
-        <v>1080.894624009878</v>
+        <v>1090.853792319515</v>
       </c>
       <c r="F107" t="n">
         <v>935.4466468213111</v>
@@ -8086,10 +8086,10 @@
         <v>933.8358885836567</v>
       </c>
       <c r="D108" t="n">
-        <v>923.9083270577657</v>
+        <v>929.5202796001412</v>
       </c>
       <c r="E108" t="n">
-        <v>1158.741508436261</v>
+        <v>1149.905700041846</v>
       </c>
       <c r="F108" t="n">
         <v>933.8358885836567</v>
@@ -8157,10 +8157,10 @@
         <v>932.2251303460022</v>
       </c>
       <c r="D109" t="n">
-        <v>900.8912679140644</v>
+        <v>905.8481854510165</v>
       </c>
       <c r="E109" t="n">
-        <v>1132.608162873452</v>
+        <v>1135.778515458583</v>
       </c>
       <c r="F109" t="n">
         <v>932.2251303460022</v>
@@ -8228,10 +8228,10 @@
         <v>930.6143721083478</v>
       </c>
       <c r="D110" t="n">
-        <v>866.3622366433107</v>
+        <v>863.4043959313926</v>
       </c>
       <c r="E110" t="n">
-        <v>1085.236752654579</v>
+        <v>1089.980617679711</v>
       </c>
       <c r="F110" t="n">
         <v>930.6143721083478</v>
@@ -8299,10 +8299,10 @@
         <v>929.0036138706932</v>
       </c>
       <c r="D111" t="n">
-        <v>855.2749563205338</v>
+        <v>853.1360079586725</v>
       </c>
       <c r="E111" t="n">
-        <v>1083.94348713671</v>
+        <v>1090.140619494008</v>
       </c>
       <c r="F111" t="n">
         <v>929.0036138706932</v>
@@ -8370,10 +8370,10 @@
         <v>927.3928556330388</v>
       </c>
       <c r="D112" t="n">
-        <v>895.3849343194142</v>
+        <v>887.8365480994968</v>
       </c>
       <c r="E112" t="n">
-        <v>1114.761318482249</v>
+        <v>1124.091764061267</v>
       </c>
       <c r="F112" t="n">
         <v>927.3928556330388</v>
@@ -8441,10 +8441,10 @@
         <v>925.7820974347089</v>
       </c>
       <c r="D113" t="n">
-        <v>903.1484065461605</v>
+        <v>914.8194469798169</v>
       </c>
       <c r="E113" t="n">
-        <v>1142.645210102146</v>
+        <v>1134.421304496543</v>
       </c>
       <c r="F113" t="n">
         <v>925.7820974347089</v>
@@ -8512,10 +8512,10 @@
         <v>924.171339236379</v>
       </c>
       <c r="D114" t="n">
-        <v>879.048659345532</v>
+        <v>872.7644075685751</v>
       </c>
       <c r="E114" t="n">
-        <v>1097.626592444897</v>
+        <v>1110.372228128805</v>
       </c>
       <c r="F114" t="n">
         <v>924.171339236379</v>
@@ -8583,10 +8583,10 @@
         <v>922.5605810380492</v>
       </c>
       <c r="D115" t="n">
-        <v>822.5460632877814</v>
+        <v>831.1577106642608</v>
       </c>
       <c r="E115" t="n">
-        <v>1050.840142391004</v>
+        <v>1056.094271868398</v>
       </c>
       <c r="F115" t="n">
         <v>922.5605810380492</v>
@@ -8654,10 +8654,10 @@
         <v>920.9498228397193</v>
       </c>
       <c r="D116" t="n">
-        <v>817.2753817076036</v>
+        <v>824.3045668314736</v>
       </c>
       <c r="E116" t="n">
-        <v>1035.055109731539</v>
+        <v>1045.123224735452</v>
       </c>
       <c r="F116" t="n">
         <v>920.9498228397193</v>
@@ -8725,10 +8725,10 @@
         <v>919.3390646413895</v>
       </c>
       <c r="D117" t="n">
-        <v>834.4521644087605</v>
+        <v>833.9481987987006</v>
       </c>
       <c r="E117" t="n">
-        <v>1053.105861278131</v>
+        <v>1065.036532907567</v>
       </c>
       <c r="F117" t="n">
         <v>919.3390646413895</v>
@@ -8796,10 +8796,10 @@
         <v>917.7283064430598</v>
       </c>
       <c r="D118" t="n">
-        <v>845.5927913989996</v>
+        <v>845.1839191413252</v>
       </c>
       <c r="E118" t="n">
-        <v>1066.281382230247</v>
+        <v>1062.467221144718</v>
       </c>
       <c r="F118" t="n">
         <v>917.7283064430598</v>
@@ -8867,10 +8867,10 @@
         <v>916.1175482208648</v>
       </c>
       <c r="D119" t="n">
-        <v>821.7074175507204</v>
+        <v>822.1849902822166</v>
       </c>
       <c r="E119" t="n">
-        <v>1048.295262543862</v>
+        <v>1053.067038714415</v>
       </c>
       <c r="F119" t="n">
         <v>916.1175482208648</v>
@@ -8938,10 +8938,10 @@
         <v>914.50678999867</v>
       </c>
       <c r="D120" t="n">
-        <v>811.9315379913296</v>
+        <v>802.6021623695026</v>
       </c>
       <c r="E120" t="n">
-        <v>1022.079445875635</v>
+        <v>1031.031443938075</v>
       </c>
       <c r="F120" t="n">
         <v>914.50678999867</v>
@@ -9009,10 +9009,10 @@
         <v>912.8960317764751</v>
       </c>
       <c r="D121" t="n">
-        <v>815.2698157665542</v>
+        <v>808.9775057823729</v>
       </c>
       <c r="E121" t="n">
-        <v>1046.841159879007</v>
+        <v>1038.931096382149</v>
       </c>
       <c r="F121" t="n">
         <v>912.8960317764751</v>
@@ -9080,10 +9080,10 @@
         <v>911.2852735542804</v>
       </c>
       <c r="D122" t="n">
-        <v>846.7421172597674</v>
+        <v>853.3605562714721</v>
       </c>
       <c r="E122" t="n">
-        <v>1082.996824927388</v>
+        <v>1086.341713950572</v>
       </c>
       <c r="F122" t="n">
         <v>911.2852735542804</v>
@@ -9151,10 +9151,10 @@
         <v>909.6745153320855</v>
       </c>
       <c r="D123" t="n">
-        <v>854.1643107408387</v>
+        <v>859.943621120427</v>
       </c>
       <c r="E123" t="n">
-        <v>1087.697682752057</v>
+        <v>1080.313512994121</v>
       </c>
       <c r="F123" t="n">
         <v>909.6745153320855</v>
@@ -9222,10 +9222,10 @@
         <v>908.0637571306498</v>
       </c>
       <c r="D124" t="n">
-        <v>813.9276713169844</v>
+        <v>808.0466480841724</v>
       </c>
       <c r="E124" t="n">
-        <v>1032.399100635869</v>
+        <v>1039.405987019849</v>
       </c>
       <c r="F124" t="n">
         <v>908.0637571306498</v>
@@ -9293,10 +9293,10 @@
         <v>906.4529989292139</v>
       </c>
       <c r="D125" t="n">
-        <v>726.2355121733806</v>
+        <v>738.7954550456919</v>
       </c>
       <c r="E125" t="n">
-        <v>959.7939558983974</v>
+        <v>953.0005270468678</v>
       </c>
       <c r="F125" t="n">
         <v>906.4529989292139</v>
@@ -9364,10 +9364,10 @@
         <v>904.8422407277782</v>
       </c>
       <c r="D126" t="n">
-        <v>688.1766798516963</v>
+        <v>687.1454833796804</v>
       </c>
       <c r="E126" t="n">
-        <v>922.4718748399151</v>
+        <v>916.4473197465991</v>
       </c>
       <c r="F126" t="n">
         <v>904.8422407277782</v>
@@ -9435,10 +9435,10 @@
         <v>903.2314825263425</v>
       </c>
       <c r="D127" t="n">
-        <v>722.8209290573233</v>
+        <v>722.7705766807184</v>
       </c>
       <c r="E127" t="n">
-        <v>941.2104860039368</v>
+        <v>947.8645877339098</v>
       </c>
       <c r="F127" t="n">
         <v>903.2314825263425</v>
@@ -9506,10 +9506,10 @@
         <v>901.6207243249066</v>
       </c>
       <c r="D128" t="n">
-        <v>763.4256049554407</v>
+        <v>760.5955571068531</v>
       </c>
       <c r="E128" t="n">
-        <v>996.6889624847678</v>
+        <v>991.9020202565197</v>
       </c>
       <c r="F128" t="n">
         <v>901.6207243249066</v>
@@ -9577,10 +9577,10 @@
         <v>900.0099661234707</v>
       </c>
       <c r="D129" t="n">
-        <v>768.2206263186099</v>
+        <v>763.1568183725022</v>
       </c>
       <c r="E129" t="n">
-        <v>995.6252813586876</v>
+        <v>991.8311212125545</v>
       </c>
       <c r="F129" t="n">
         <v>900.0099661234707</v>
@@ -9648,10 +9648,10 @@
         <v>898.3992080536879</v>
       </c>
       <c r="D130" t="n">
-        <v>741.094934508026</v>
+        <v>746.4779029772765</v>
       </c>
       <c r="E130" t="n">
-        <v>969.9540291099585</v>
+        <v>969.3989098157243</v>
       </c>
       <c r="F130" t="n">
         <v>898.3992080536879</v>
@@ -9719,10 +9719,10 @@
         <v>896.7884499839049</v>
       </c>
       <c r="D131" t="n">
-        <v>718.3688295107581</v>
+        <v>719.5920154322569</v>
       </c>
       <c r="E131" t="n">
-        <v>943.8472145454348</v>
+        <v>948.1586647506747</v>
       </c>
       <c r="F131" t="n">
         <v>896.7884499839049</v>
@@ -9790,10 +9790,10 @@
         <v>895.1776919141219</v>
       </c>
       <c r="D132" t="n">
-        <v>731.8422961161982</v>
+        <v>728.4551255423563</v>
       </c>
       <c r="E132" t="n">
-        <v>957.097186317952</v>
+        <v>961.9312139612927</v>
       </c>
       <c r="F132" t="n">
         <v>895.1776919141219</v>
@@ -9861,10 +9861,10 @@
         <v>893.5669338443389</v>
       </c>
       <c r="D133" t="n">
-        <v>761.7625462581055</v>
+        <v>761.242164731286</v>
       </c>
       <c r="E133" t="n">
-        <v>995.1974262014295</v>
+        <v>993.592085013514</v>
       </c>
       <c r="F133" t="n">
         <v>893.5669338443389</v>
@@ -9932,10 +9932,10 @@
         <v>891.956175774556</v>
       </c>
       <c r="D134" t="n">
-        <v>775.6026301636157</v>
+        <v>780.4337220137686</v>
       </c>
       <c r="E134" t="n">
-        <v>1001.021571835823</v>
+        <v>1002.198233554859</v>
       </c>
       <c r="F134" t="n">
         <v>891.956175774556</v>
@@ -10003,10 +10003,10 @@
         <v>890.3454177502874</v>
       </c>
       <c r="D135" t="n">
-        <v>769.3422653589759</v>
+        <v>768.2780753643417</v>
       </c>
       <c r="E135" t="n">
-        <v>991.3353328216234</v>
+        <v>992.5504890513631</v>
       </c>
       <c r="F135" t="n">
         <v>890.3454177502874</v>
@@ -10074,10 +10074,10 @@
         <v>888.7346597260189</v>
       </c>
       <c r="D136" t="n">
-        <v>761.046404008316</v>
+        <v>762.6887407343578</v>
       </c>
       <c r="E136" t="n">
-        <v>980.104457352607</v>
+        <v>981.091345597285</v>
       </c>
       <c r="F136" t="n">
         <v>888.7346597260189</v>
@@ -10145,10 +10145,10 @@
         <v>887.1239017017504</v>
       </c>
       <c r="D137" t="n">
-        <v>763.8917633052907</v>
+        <v>755.204540089225</v>
       </c>
       <c r="E137" t="n">
-        <v>981.8036137536819</v>
+        <v>988.6766386029072</v>
       </c>
       <c r="F137" t="n">
         <v>887.1239017017504</v>
@@ -10216,10 +10216,10 @@
         <v>885.5131436774818</v>
       </c>
       <c r="D138" t="n">
-        <v>758.6541402559985</v>
+        <v>755.7721633908079</v>
       </c>
       <c r="E138" t="n">
-        <v>984.3989062553919</v>
+        <v>979.2487072240286</v>
       </c>
       <c r="F138" t="n">
         <v>885.5131436774818</v>
@@ -10287,10 +10287,10 @@
         <v>883.9023856532133</v>
       </c>
       <c r="D139" t="n">
-        <v>712.7899320487381</v>
+        <v>718.4411998950825</v>
       </c>
       <c r="E139" t="n">
-        <v>945.0221389180861</v>
+        <v>946.1777456527659</v>
       </c>
       <c r="F139" t="n">
         <v>883.9023856532133</v>
@@ -10358,10 +10358,10 @@
         <v>882.2916276289448</v>
       </c>
       <c r="D140" t="n">
-        <v>669.5432034414471</v>
+        <v>667.6517557635914</v>
       </c>
       <c r="E140" t="n">
-        <v>897.5736646949493</v>
+        <v>892.0020718130751</v>
       </c>
       <c r="F140" t="n">
         <v>882.2916276289448</v>
@@ -10429,10 +10429,10 @@
         <v>880.6808696156095</v>
       </c>
       <c r="D141" t="n">
-        <v>653.057904361791</v>
+        <v>662.901932468064</v>
       </c>
       <c r="E141" t="n">
-        <v>885.6699443817117</v>
+        <v>893.7689307181874</v>
       </c>
       <c r="F141" t="n">
         <v>880.6808696156095</v>
@@ -10500,10 +10500,10 @@
         <v>879.070111602274</v>
       </c>
       <c r="D142" t="n">
-        <v>723.3181727279401</v>
+        <v>718.5828537368006</v>
       </c>
       <c r="E142" t="n">
-        <v>952.5140586905702</v>
+        <v>940.1714578353939</v>
       </c>
       <c r="F142" t="n">
         <v>879.070111602274</v>
@@ -10571,10 +10571,10 @@
         <v>877.4593535889388</v>
       </c>
       <c r="D143" t="n">
-        <v>801.5647048150662</v>
+        <v>793.2841928698522</v>
       </c>
       <c r="E143" t="n">
-        <v>1025.918112710939</v>
+        <v>1025.184322538376</v>
       </c>
       <c r="F143" t="n">
         <v>877.4593535889388</v>
@@ -10642,10 +10642,10 @@
         <v>875.8485955756034</v>
       </c>
       <c r="D144" t="n">
-        <v>824.3355689730599</v>
+        <v>833.1024501967635</v>
       </c>
       <c r="E144" t="n">
-        <v>1051.393801008583</v>
+        <v>1057.000200280504</v>
       </c>
       <c r="F144" t="n">
         <v>875.8485955756034</v>
@@ -10713,10 +10713,10 @@
         <v>874.2378375622681</v>
       </c>
       <c r="D145" t="n">
-        <v>804.2558580015652</v>
+        <v>797.6815197794516</v>
       </c>
       <c r="E145" t="n">
-        <v>1028.439393405102</v>
+        <v>1030.598153624466</v>
       </c>
       <c r="F145" t="n">
         <v>874.2378375622681</v>
@@ -10784,10 +10784,10 @@
         <v>872.6270795489327</v>
       </c>
       <c r="D146" t="n">
-        <v>770.7367614958031</v>
+        <v>775.7523371847644</v>
       </c>
       <c r="E146" t="n">
-        <v>991.651948063955</v>
+        <v>996.562051820059</v>
       </c>
       <c r="F146" t="n">
         <v>872.6270795489327</v>
@@ -10855,10 +10855,10 @@
         <v>871.0163215355974</v>
       </c>
       <c r="D147" t="n">
-        <v>777.941350305954</v>
+        <v>773.3316833542716</v>
       </c>
       <c r="E147" t="n">
-        <v>1001.726968472164</v>
+        <v>994.4705736860182</v>
       </c>
       <c r="F147" t="n">
         <v>871.0163215355974</v>
@@ -10926,10 +10926,10 @@
         <v>869.405563522262</v>
       </c>
       <c r="D148" t="n">
-        <v>809.3518954944751</v>
+        <v>815.918608924359</v>
       </c>
       <c r="E148" t="n">
-        <v>1039.320613141968</v>
+        <v>1044.335071578497</v>
       </c>
       <c r="F148" t="n">
         <v>869.405563522262</v>
@@ -10997,10 +10997,10 @@
         <v>867.7948055089266</v>
       </c>
       <c r="D149" t="n">
-        <v>823.5262970469321</v>
+        <v>820.349514387422</v>
       </c>
       <c r="E149" t="n">
-        <v>1047.299845859407</v>
+        <v>1046.356604194493</v>
       </c>
       <c r="F149" t="n">
         <v>867.7948055089266</v>
@@ -11068,10 +11068,10 @@
         <v>866.1840474955914</v>
       </c>
       <c r="D150" t="n">
-        <v>770.0232792169489</v>
+        <v>770.1906827746056</v>
       </c>
       <c r="E150" t="n">
-        <v>995.9752556319557</v>
+        <v>991.4978515523582</v>
       </c>
       <c r="F150" t="n">
         <v>866.1840474955914</v>
@@ -11139,10 +11139,10 @@
         <v>864.573289482256</v>
       </c>
       <c r="D151" t="n">
-        <v>696.1268658229602</v>
+        <v>691.7734162812437</v>
       </c>
       <c r="E151" t="n">
-        <v>921.5213735278895</v>
+        <v>917.687262311493</v>
       </c>
       <c r="F151" t="n">
         <v>864.573289482256</v>
@@ -11210,10 +11210,10 @@
         <v>862.9625314689207</v>
       </c>
       <c r="D152" t="n">
-        <v>681.4261663407764</v>
+        <v>674.7956222044229</v>
       </c>
       <c r="E152" t="n">
-        <v>914.3156855269573</v>
+        <v>903.9465676243627</v>
       </c>
       <c r="F152" t="n">
         <v>862.9625314689207</v>
@@ -11281,10 +11281,10 @@
         <v>861.3517734555853</v>
       </c>
       <c r="D153" t="n">
-        <v>735.5056664769397</v>
+        <v>723.4562077557839</v>
       </c>
       <c r="E153" t="n">
-        <v>956.3249177073673</v>
+        <v>957.9750328438491</v>
       </c>
       <c r="F153" t="n">
         <v>861.3517734555853</v>
@@ -11352,10 +11352,10 @@
         <v>859.7410154422499</v>
       </c>
       <c r="D154" t="n">
-        <v>751.2935244294133</v>
+        <v>758.1418819197835</v>
       </c>
       <c r="E154" t="n">
-        <v>970.1466853085377</v>
+        <v>970.9278336443701</v>
       </c>
       <c r="F154" t="n">
         <v>859.7410154422499</v>
@@ -11423,10 +11423,10 @@
         <v>858.1302574289145</v>
       </c>
       <c r="D155" t="n">
-        <v>691.4186068310424</v>
+        <v>692.0823622769882</v>
       </c>
       <c r="E155" t="n">
-        <v>919.9421910569695</v>
+        <v>917.9584961917691</v>
       </c>
       <c r="F155" t="n">
         <v>858.1302574289145</v>
@@ -11494,10 +11494,10 @@
         <v>856.5194994155793</v>
       </c>
       <c r="D156" t="n">
-        <v>586.4954824073067</v>
+        <v>596.5715903025188</v>
       </c>
       <c r="E156" t="n">
-        <v>813.834092881545</v>
+        <v>812.9421665534081</v>
       </c>
       <c r="F156" t="n">
         <v>856.5194994155793</v>
@@ -11565,10 +11565,10 @@
         <v>854.9087414022439</v>
       </c>
       <c r="D157" t="n">
-        <v>545.7909571569654</v>
+        <v>551.5261247932982</v>
       </c>
       <c r="E157" t="n">
-        <v>767.6120877905014</v>
+        <v>773.4237537686812</v>
       </c>
       <c r="F157" t="n">
         <v>854.9087414022439</v>
@@ -11636,10 +11636,10 @@
         <v>853.2979833889086</v>
       </c>
       <c r="D158" t="n">
-        <v>625.8721467625205</v>
+        <v>615.8471025792197</v>
       </c>
       <c r="E158" t="n">
-        <v>849.0281735110286</v>
+        <v>852.3483127988202</v>
       </c>
       <c r="F158" t="n">
         <v>853.2979833889086</v>
@@ -11707,10 +11707,10 @@
         <v>851.6872253755732</v>
       </c>
       <c r="D159" t="n">
-        <v>749.4207831621836</v>
+        <v>750.3463219342091</v>
       </c>
       <c r="E159" t="n">
-        <v>978.5191976809526</v>
+        <v>979.8221811341423</v>
       </c>
       <c r="F159" t="n">
         <v>851.6872253755732</v>
@@ -11778,10 +11778,10 @@
         <v>850.0764673622378</v>
       </c>
       <c r="D160" t="n">
-        <v>835.516557225227</v>
+        <v>838.6967272371551</v>
       </c>
       <c r="E160" t="n">
-        <v>1065.08355267588</v>
+        <v>1062.496792777135</v>
       </c>
       <c r="F160" t="n">
         <v>850.0764673622378</v>
@@ -11849,10 +11849,10 @@
         <v>848.4657093489026</v>
       </c>
       <c r="D161" t="n">
-        <v>833.3306255861876</v>
+        <v>825.6293734144177</v>
       </c>
       <c r="E161" t="n">
-        <v>1059.408920234421</v>
+        <v>1059.826834174135</v>
       </c>
       <c r="F161" t="n">
         <v>848.4657093489026</v>
@@ -11920,10 +11920,10 @@
         <v>846.8549513355672</v>
       </c>
       <c r="D162" t="n">
-        <v>782.3684028103561</v>
+        <v>786.8207300543464</v>
       </c>
       <c r="E162" t="n">
-        <v>1008.606703778977</v>
+        <v>1012.439700274955</v>
       </c>
       <c r="F162" t="n">
         <v>846.8549513355672</v>
@@ -11991,10 +11991,10 @@
         <v>845.2441933222318</v>
       </c>
       <c r="D163" t="n">
-        <v>777.2810659247064</v>
+        <v>771.4705061789379</v>
       </c>
       <c r="E163" t="n">
-        <v>1005.342896585187</v>
+        <v>988.4228161289561</v>
       </c>
       <c r="F163" t="n">
         <v>845.2441933222318</v>
@@ -12062,10 +12062,10 @@
         <v>843.6334353088965</v>
       </c>
       <c r="D164" t="n">
-        <v>812.2384891963108</v>
+        <v>801.9687284815267</v>
       </c>
       <c r="E164" t="n">
-        <v>1033.688251168338</v>
+        <v>1028.331106981391</v>
       </c>
       <c r="F164" t="n">
         <v>843.6334353088965</v>
@@ -12133,10 +12133,10 @@
         <v>842.022677295561</v>
       </c>
       <c r="D165" t="n">
-        <v>823.1627767271715</v>
+        <v>817.8264113434956</v>
       </c>
       <c r="E165" t="n">
-        <v>1053.561331896404</v>
+        <v>1040.951481473183</v>
       </c>
       <c r="F165" t="n">
         <v>842.022677295561</v>
@@ -12204,10 +12204,10 @@
         <v>840.4119192822259</v>
       </c>
       <c r="D166" t="n">
-        <v>806.6690932741984</v>
+        <v>802.9856484357119</v>
       </c>
       <c r="E166" t="n">
-        <v>1028.694627391007</v>
+        <v>1026.64435287769</v>
       </c>
       <c r="F166" t="n">
         <v>840.4119192822259</v>
@@ -12275,10 +12275,10 @@
         <v>838.8011612688905</v>
       </c>
       <c r="D167" t="n">
-        <v>755.0798827326619</v>
+        <v>753.3453192990129</v>
       </c>
       <c r="E167" t="n">
-        <v>975.3498249722087</v>
+        <v>981.588077911605</v>
       </c>
       <c r="F167" t="n">
         <v>838.8011612688905</v>
@@ -12346,10 +12346,10 @@
         <v>837.1904032555551</v>
       </c>
       <c r="D168" t="n">
-        <v>725.3596050021569</v>
+        <v>730.6895360979441</v>
       </c>
       <c r="E168" t="n">
-        <v>952.2432701941191</v>
+        <v>961.6450811438827</v>
       </c>
       <c r="F168" t="n">
         <v>837.1904032555551</v>
@@ -12417,10 +12417,10 @@
         <v>835.5796452422197</v>
       </c>
       <c r="D169" t="n">
-        <v>747.7841093928483</v>
+        <v>740.019684894646</v>
       </c>
       <c r="E169" t="n">
-        <v>973.7077698846465</v>
+        <v>975.2228155832991</v>
       </c>
       <c r="F169" t="n">
         <v>835.5796452422197</v>
@@ -12488,10 +12488,10 @@
         <v>833.9688872288845</v>
       </c>
       <c r="D170" t="n">
-        <v>761.8505816046182</v>
+        <v>752.0434631441329</v>
       </c>
       <c r="E170" t="n">
-        <v>983.9847450888104</v>
+        <v>981.181550769079</v>
       </c>
       <c r="F170" t="n">
         <v>833.9688872288845</v>
@@ -12559,10 +12559,10 @@
         <v>832.3581292155491</v>
       </c>
       <c r="D171" t="n">
-        <v>737.9572493566551</v>
+        <v>739.7928605043585</v>
       </c>
       <c r="E171" t="n">
-        <v>967.5465914093704</v>
+        <v>982.6954984792258</v>
       </c>
       <c r="F171" t="n">
         <v>832.3581292155491</v>
@@ -12630,10 +12630,10 @@
         <v>830.7473712022137</v>
       </c>
       <c r="D172" t="n">
-        <v>719.439601892151</v>
+        <v>727.0262964423845</v>
       </c>
       <c r="E172" t="n">
-        <v>950.3644422899753</v>
+        <v>949.5726882585053</v>
       </c>
       <c r="F172" t="n">
         <v>830.7473712022137</v>
@@ -12701,10 +12701,10 @@
         <v>829.1366131888784</v>
       </c>
       <c r="D173" t="n">
-        <v>730.1361962676398</v>
+        <v>726.4228730198715</v>
       </c>
       <c r="E173" t="n">
-        <v>951.2101082078526</v>
+        <v>946.5846128015811</v>
       </c>
       <c r="F173" t="n">
         <v>829.1366131888784</v>
@@ -12772,10 +12772,10 @@
         <v>827.5258551755431</v>
       </c>
       <c r="D174" t="n">
-        <v>755.7900979218737</v>
+        <v>757.3360999897777</v>
       </c>
       <c r="E174" t="n">
-        <v>988.6072947607852</v>
+        <v>981.6919000508159</v>
       </c>
       <c r="F174" t="n">
         <v>827.5258551755431</v>
@@ -12843,10 +12843,10 @@
         <v>825.9150971622078</v>
       </c>
       <c r="D175" t="n">
-        <v>783.0086228785975</v>
+        <v>777.2710152270706</v>
       </c>
       <c r="E175" t="n">
-        <v>1008.576748042204</v>
+        <v>1000.15580557724</v>
       </c>
       <c r="F175" t="n">
         <v>825.9150971622078</v>
@@ -12914,10 +12914,10 @@
         <v>824.3043391488724</v>
       </c>
       <c r="D176" t="n">
-        <v>728.8780226978978</v>
+        <v>735.267684234248</v>
       </c>
       <c r="E176" t="n">
-        <v>971.4276266069586</v>
+        <v>964.1135025537027</v>
       </c>
       <c r="F176" t="n">
         <v>824.3043391488724</v>
@@ -12985,16 +12985,16 @@
         <v>822.693581135537</v>
       </c>
       <c r="D177" t="n">
-        <v>668.87529331075</v>
+        <v>652.1343919540049</v>
       </c>
       <c r="E177" t="n">
-        <v>890.1926471610235</v>
+        <v>881.6139308153847</v>
       </c>
       <c r="F177" t="n">
-        <v>822.6873989394708</v>
+        <v>822.6878556894274</v>
       </c>
       <c r="G177" t="n">
-        <v>822.7037783332239</v>
+        <v>822.7199242854882</v>
       </c>
       <c r="H177" t="n">
         <v>-49.24785280328991</v>
@@ -13056,16 +13056,16 @@
         <v>821.0828231222017</v>
       </c>
       <c r="D178" t="n">
-        <v>606.4266014082618</v>
+        <v>619.050948716376</v>
       </c>
       <c r="E178" t="n">
-        <v>839.5033254838909</v>
+        <v>841.7721350358031</v>
       </c>
       <c r="F178" t="n">
-        <v>821.029426718458</v>
+        <v>821.0525437068267</v>
       </c>
       <c r="G178" t="n">
-        <v>821.1208597064216</v>
+        <v>821.1560728962573</v>
       </c>
       <c r="H178" t="n">
         <v>-92.66445714332306</v>
@@ -13127,16 +13127,16 @@
         <v>819.4720651088663</v>
       </c>
       <c r="D179" t="n">
-        <v>634.8458211185941</v>
+        <v>636.7080939944191</v>
       </c>
       <c r="E179" t="n">
-        <v>862.8563496868428</v>
+        <v>863.4354702961557</v>
       </c>
       <c r="F179" t="n">
-        <v>819.3626553303102</v>
+        <v>819.404863148352</v>
       </c>
       <c r="G179" t="n">
-        <v>819.56481010991</v>
+        <v>819.5965750732352</v>
       </c>
       <c r="H179" t="n">
         <v>-74.35440419081618</v>
@@ -13198,16 +13198,16 @@
         <v>817.8613070955311</v>
       </c>
       <c r="D180" t="n">
-        <v>680.218344054806</v>
+        <v>673.463337860193</v>
       </c>
       <c r="E180" t="n">
-        <v>895.6273965993435</v>
+        <v>900.7590399795325</v>
       </c>
       <c r="F180" t="n">
-        <v>817.6846351718497</v>
+        <v>817.7324185786201</v>
       </c>
       <c r="G180" t="n">
-        <v>818.0326709981579</v>
+        <v>818.0484334363908</v>
       </c>
       <c r="H180" t="n">
         <v>-29.25620820382509</v>
@@ -13269,16 +13269,16 @@
         <v>816.2505490821956</v>
       </c>
       <c r="D181" t="n">
-        <v>697.2357220240979</v>
+        <v>689.7031944422106</v>
       </c>
       <c r="E181" t="n">
-        <v>919.9749279605221</v>
+        <v>913.3686504768855</v>
       </c>
       <c r="F181" t="n">
-        <v>815.9869764767448</v>
+        <v>816.0741661877518</v>
       </c>
       <c r="G181" t="n">
-        <v>816.4926014259048</v>
+        <v>816.5147470445618</v>
       </c>
       <c r="H181" t="n">
         <v>-13.45744271093823</v>
@@ -13340,16 +13340,16 @@
         <v>814.6397910688603</v>
       </c>
       <c r="D182" t="n">
-        <v>661.5933473884405</v>
+        <v>666.4888114010353</v>
       </c>
       <c r="E182" t="n">
-        <v>896.4056741953609</v>
+        <v>885.7714879615984</v>
       </c>
       <c r="F182" t="n">
-        <v>814.286385178521</v>
+        <v>814.3828626551237</v>
       </c>
       <c r="G182" t="n">
-        <v>814.9762312743745</v>
+        <v>814.9939172970068</v>
       </c>
       <c r="H182" t="n">
         <v>-38.27158461600791</v>
@@ -13411,16 +13411,16 @@
         <v>813.0290330555249</v>
       </c>
       <c r="D183" t="n">
-        <v>637.1803323201661</v>
+        <v>635.211016175399</v>
       </c>
       <c r="E183" t="n">
-        <v>862.2793760043703</v>
+        <v>870.0584698027718</v>
       </c>
       <c r="F183" t="n">
-        <v>812.5849479757478</v>
+        <v>812.6969795286753</v>
       </c>
       <c r="G183" t="n">
-        <v>813.4473736822156</v>
+        <v>813.4696421516669</v>
       </c>
       <c r="H183" t="n">
         <v>-63.74168043022494</v>
@@ -13482,16 +13482,16 @@
         <v>811.4182750421896</v>
       </c>
       <c r="D184" t="n">
-        <v>644.5681816621368</v>
+        <v>639.0628892097377</v>
       </c>
       <c r="E184" t="n">
-        <v>859.5053037984169</v>
+        <v>866.2951589331525</v>
       </c>
       <c r="F184" t="n">
-        <v>810.867189399737</v>
+        <v>811.013587371809</v>
       </c>
       <c r="G184" t="n">
-        <v>811.9394954784456</v>
+        <v>811.9369480945195</v>
       </c>
       <c r="H184" t="n">
         <v>-53.99535102130238</v>
@@ -13553,16 +13553,16 @@
         <v>809.8075170288542</v>
       </c>
       <c r="D185" t="n">
-        <v>671.3553223389332</v>
+        <v>679.2045264090974</v>
       </c>
       <c r="E185" t="n">
-        <v>911.0939038624391</v>
+        <v>908.6716328156008</v>
       </c>
       <c r="F185" t="n">
-        <v>809.1709750011377</v>
+        <v>809.3059560441059</v>
       </c>
       <c r="G185" t="n">
-        <v>810.4370831239763</v>
+        <v>810.4298779512476</v>
       </c>
       <c r="H185" t="n">
         <v>-20.51489814320607</v>
@@ -13624,16 +13624,16 @@
         <v>808.1967590155189</v>
       </c>
       <c r="D186" t="n">
-        <v>698.5771568215072</v>
+        <v>692.7820897738472</v>
       </c>
       <c r="E186" t="n">
-        <v>924.1388646628781</v>
+        <v>913.7172997348276</v>
       </c>
       <c r="F186" t="n">
-        <v>807.4546296910435</v>
+        <v>807.5882111625106</v>
       </c>
       <c r="G186" t="n">
-        <v>808.9395073825409</v>
+        <v>808.9173985563921</v>
       </c>
       <c r="H186" t="n">
         <v>-0.9423541728682826</v>
@@ -13695,16 +13695,16 @@
         <v>806.5860010021836</v>
       </c>
       <c r="D187" t="n">
-        <v>683.7507361998206</v>
+        <v>680.8379738789148</v>
       </c>
       <c r="E187" t="n">
-        <v>914.855759044925</v>
+        <v>912.1924582445405</v>
       </c>
       <c r="F187" t="n">
-        <v>805.6995419265342</v>
+        <v>805.8974845751274</v>
       </c>
       <c r="G187" t="n">
-        <v>807.4347521417818</v>
+        <v>807.4460180590893</v>
       </c>
       <c r="H187" t="n">
         <v>-7.789295325818737</v>
@@ -13766,16 +13766,16 @@
         <v>804.9752429888482</v>
       </c>
       <c r="D188" t="n">
-        <v>674.4322890270538</v>
+        <v>670.2034349694087</v>
       </c>
       <c r="E188" t="n">
-        <v>909.9395556136745</v>
+        <v>896.9467766136299</v>
       </c>
       <c r="F188" t="n">
-        <v>803.9917031141741</v>
+        <v>804.1676030469196</v>
       </c>
       <c r="G188" t="n">
-        <v>805.9278174319112</v>
+        <v>805.9931738896709</v>
       </c>
       <c r="H188" t="n">
         <v>-17.78785442177226</v>
@@ -13837,16 +13837,16 @@
         <v>803.3644849755129</v>
       </c>
       <c r="D189" t="n">
-        <v>676.3043378815556</v>
+        <v>673.9741204379316</v>
       </c>
       <c r="E189" t="n">
-        <v>901.6716163616715</v>
+        <v>912.3663604024181</v>
       </c>
       <c r="F189" t="n">
-        <v>802.2214998097191</v>
+        <v>802.3961816037365</v>
       </c>
       <c r="G189" t="n">
-        <v>804.4337148321208</v>
+        <v>804.4945122122023</v>
       </c>
       <c r="H189" t="n">
         <v>-12.9970380887282</v>
@@ -13908,16 +13908,16 @@
         <v>801.7537269621776</v>
       </c>
       <c r="D190" t="n">
-        <v>669.3407856760342</v>
+        <v>675.3127028141707</v>
       </c>
       <c r="E190" t="n">
-        <v>900.531165300378</v>
+        <v>901.1409495931241</v>
       </c>
       <c r="F190" t="n">
-        <v>800.479639934339</v>
+        <v>800.7000812753406</v>
       </c>
       <c r="G190" t="n">
-        <v>802.9251841481433</v>
+        <v>803.0158974523758</v>
       </c>
       <c r="H190" t="n">
         <v>-11.98958125642648</v>
@@ -13979,16 +13979,16 @@
         <v>800.1429689488422</v>
       </c>
       <c r="D191" t="n">
-        <v>643.7776925500181</v>
+        <v>636.5648724944813</v>
       </c>
       <c r="E191" t="n">
-        <v>870.4297481037174</v>
+        <v>864.551580184488</v>
       </c>
       <c r="F191" t="n">
-        <v>798.7155083918421</v>
+        <v>798.9587421958162</v>
       </c>
       <c r="G191" t="n">
-        <v>801.4146906429633</v>
+        <v>801.5234838154454</v>
       </c>
       <c r="H191" t="n">
         <v>-43.0472370212311</v>
@@ -14050,16 +14050,16 @@
         <v>798.5322109355068</v>
       </c>
       <c r="D192" t="n">
-        <v>587.9289128440648</v>
+        <v>597.8916526621143</v>
       </c>
       <c r="E192" t="n">
-        <v>815.7046343230606</v>
+        <v>816.1039760804931</v>
       </c>
       <c r="F192" t="n">
-        <v>797.0033433404441</v>
+        <v>797.2279572219679</v>
       </c>
       <c r="G192" t="n">
-        <v>799.9087127478147</v>
+        <v>800.0378443999919</v>
       </c>
       <c r="H192" t="n">
         <v>-93.85202193895593</v>
@@ -14121,16 +14121,16 @@
         <v>796.9214529221715</v>
       </c>
       <c r="D193" t="n">
-        <v>572.1015989767266</v>
+        <v>574.4893636780591</v>
       </c>
       <c r="E193" t="n">
-        <v>798.5488113480965</v>
+        <v>799.9523049588004</v>
       </c>
       <c r="F193" t="n">
-        <v>795.2816447834523</v>
+        <v>795.5429177907625</v>
       </c>
       <c r="G193" t="n">
-        <v>798.4170334504049</v>
+        <v>798.5917056456403</v>
       </c>
       <c r="H193" t="n">
         <v>-111.0560980856283</v>
@@ -14192,16 +14192,16 @@
         <v>795.3106949088362</v>
       </c>
       <c r="D194" t="n">
-        <v>616.3782968882077</v>
+        <v>614.9536470672325</v>
       </c>
       <c r="E194" t="n">
-        <v>840.5357525064611</v>
+        <v>854.2563388045312</v>
       </c>
       <c r="F194" t="n">
-        <v>793.5182014449495</v>
+        <v>793.7897012584866</v>
       </c>
       <c r="G194" t="n">
-        <v>796.9909541405806</v>
+        <v>797.1300502551563</v>
       </c>
       <c r="H194" t="n">
         <v>-60.92145402902928</v>
@@ -14263,16 +14263,16 @@
         <v>793.6999368955007</v>
       </c>
       <c r="D195" t="n">
-        <v>698.534231900031</v>
+        <v>698.23081107528</v>
       </c>
       <c r="E195" t="n">
-        <v>926.0926873165529</v>
+        <v>924.129967408321</v>
       </c>
       <c r="F195" t="n">
-        <v>791.8044596935824</v>
+        <v>792.0542211498488</v>
       </c>
       <c r="G195" t="n">
-        <v>795.498189212671</v>
+        <v>795.6538944735452</v>
       </c>
       <c r="H195" t="n">
         <v>22.67770678929321</v>
@@ -14334,16 +14334,16 @@
         <v>792.0891788821655</v>
       </c>
       <c r="D196" t="n">
-        <v>750.546971943016</v>
+        <v>754.2314290967348</v>
       </c>
       <c r="E196" t="n">
-        <v>986.2852204058131</v>
+        <v>970.9860086105832</v>
       </c>
       <c r="F196" t="n">
-        <v>790.0364764404928</v>
+        <v>790.2882735168748</v>
       </c>
       <c r="G196" t="n">
-        <v>794.0420741713641</v>
+        <v>794.1989789385941</v>
       </c>
       <c r="H196" t="n">
         <v>69.33623479125781</v>
@@ -14405,16 +14405,16 @@
         <v>790.47842086883</v>
       </c>
       <c r="D197" t="n">
-        <v>723.7061697556696</v>
+        <v>725.611571748212</v>
       </c>
       <c r="E197" t="n">
-        <v>953.2837769689804</v>
+        <v>956.0847212068403</v>
       </c>
       <c r="F197" t="n">
-        <v>788.2501092398696</v>
+        <v>788.4977938971513</v>
       </c>
       <c r="G197" t="n">
-        <v>792.5933210358608</v>
+        <v>792.7515045058511</v>
       </c>
       <c r="H197" t="n">
         <v>51.03920079723527</v>
@@ -14476,16 +14476,16 @@
         <v>788.8676628554948</v>
       </c>
       <c r="D198" t="n">
-        <v>687.7537420243974</v>
+        <v>692.7026733961496</v>
       </c>
       <c r="E198" t="n">
-        <v>915.5834205470719</v>
+        <v>914.697766516646</v>
       </c>
       <c r="F198" t="n">
-        <v>786.4858182694295</v>
+        <v>786.7041597963647</v>
       </c>
       <c r="G198" t="n">
-        <v>791.1797570879586</v>
+        <v>791.2862998891247</v>
       </c>
       <c r="H198" t="n">
         <v>12.7169984072959</v>
@@ -14547,16 +14547,16 @@
         <v>787.2569048421594</v>
       </c>
       <c r="D199" t="n">
-        <v>694.0694788597186</v>
+        <v>677.6576458951297</v>
       </c>
       <c r="E199" t="n">
-        <v>914.5678460071429</v>
+        <v>913.1024110875616</v>
       </c>
       <c r="F199" t="n">
-        <v>784.7186962926095</v>
+        <v>784.9161424418398</v>
       </c>
       <c r="G199" t="n">
-        <v>789.7566620393555</v>
+        <v>789.8290570043699</v>
       </c>
       <c r="H199" t="n">
         <v>14.05116953258469</v>
@@ -14618,16 +14618,16 @@
         <v>785.646146828824</v>
       </c>
       <c r="D200" t="n">
-        <v>725.1563000577471</v>
+        <v>727.0022007576825</v>
       </c>
       <c r="E200" t="n">
-        <v>953.5670855919802</v>
+        <v>955.4486008335912</v>
       </c>
       <c r="F200" t="n">
-        <v>782.935276325269</v>
+        <v>783.1465231379478</v>
       </c>
       <c r="G200" t="n">
-        <v>788.2736184550459</v>
+        <v>788.3950017734005</v>
       </c>
       <c r="H200" t="n">
         <v>53.42674903665247</v>
@@ -14689,16 +14689,16 @@
         <v>784.0353888154887</v>
       </c>
       <c r="D201" t="n">
-        <v>746.0079517526052</v>
+        <v>750.0636719021145</v>
       </c>
       <c r="E201" t="n">
-        <v>973.5750014243473</v>
+        <v>957.0736295728336</v>
       </c>
       <c r="F201" t="n">
-        <v>781.1710916554572</v>
+        <v>781.3631984451027</v>
       </c>
       <c r="G201" t="n">
-        <v>786.8002961654516</v>
+        <v>786.9560331837072</v>
       </c>
       <c r="H201" t="n">
         <v>70.33166382814383</v>
@@ -14760,16 +14760,16 @@
         <v>782.4246308021534</v>
       </c>
       <c r="D202" t="n">
-        <v>693.840812720432</v>
+        <v>694.4105469304787</v>
       </c>
       <c r="E202" t="n">
-        <v>924.1239244817529</v>
+        <v>922.5370713050484</v>
       </c>
       <c r="F202" t="n">
-        <v>779.3848478474662</v>
+        <v>779.5990096927122</v>
       </c>
       <c r="G202" t="n">
-        <v>785.3576978268341</v>
+        <v>785.5680632441149</v>
       </c>
       <c r="H202" t="n">
         <v>25.12323163442285</v>
@@ -14831,16 +14831,16 @@
         <v>780.8138727888181</v>
       </c>
       <c r="D203" t="n">
-        <v>623.3013084258187</v>
+        <v>611.3423361595591</v>
       </c>
       <c r="E203" t="n">
-        <v>850.4845878819257</v>
+        <v>851.0303768672476</v>
       </c>
       <c r="F203" t="n">
-        <v>777.5759554361282</v>
+        <v>777.8009617605876</v>
       </c>
       <c r="G203" t="n">
-        <v>783.9314159211268</v>
+        <v>784.1324200866652</v>
       </c>
       <c r="H203" t="n">
         <v>-44.88374479290125</v>
@@ -14902,16 +14902,16 @@
         <v>779.2031147754826</v>
       </c>
       <c r="D204" t="n">
-        <v>594.3392937546898</v>
+        <v>601.1997417228689</v>
       </c>
       <c r="E204" t="n">
-        <v>834.6729392013942</v>
+        <v>821.7998134299988</v>
       </c>
       <c r="F204" t="n">
-        <v>775.787427748458</v>
+        <v>775.9943846832184</v>
       </c>
       <c r="G204" t="n">
-        <v>782.4453816617541</v>
+        <v>782.6766866235064</v>
       </c>
       <c r="H204" t="n">
         <v>-67.8674308980297</v>
@@ -14973,16 +14973,16 @@
         <v>777.5923567621473</v>
       </c>
       <c r="D205" t="n">
-        <v>638.1490197481074</v>
+        <v>634.3184276679108</v>
       </c>
       <c r="E205" t="n">
-        <v>862.3578126621642</v>
+        <v>858.6165482391744</v>
       </c>
       <c r="F205" t="n">
-        <v>773.9834432309952</v>
+        <v>774.179185075846</v>
       </c>
       <c r="G205" t="n">
-        <v>780.9724769515531</v>
+        <v>781.1961537897375</v>
       </c>
       <c r="H205" t="n">
         <v>-29.22894536164272</v>
@@ -15044,16 +15044,16 @@
         <v>775.9815987488118</v>
       </c>
       <c r="D206" t="n">
-        <v>669.883730682396</v>
+        <v>663.2808784963038</v>
       </c>
       <c r="E206" t="n">
-        <v>892.9832109358828</v>
+        <v>891.7306933899322</v>
       </c>
       <c r="F206" t="n">
-        <v>772.2172425053285</v>
+        <v>772.3778729532057</v>
       </c>
       <c r="G206" t="n">
-        <v>779.5732938087791</v>
+        <v>779.7996423861512</v>
       </c>
       <c r="H206" t="n">
         <v>3.607981443644373</v>
@@ -15115,16 +15115,16 @@
         <v>774.3708407354767</v>
       </c>
       <c r="D207" t="n">
-        <v>625.2304306489266</v>
+        <v>620.5914017473243</v>
       </c>
       <c r="E207" t="n">
-        <v>853.8789273779336</v>
+        <v>842.7466830990293</v>
       </c>
       <c r="F207" t="n">
-        <v>770.4510822981792</v>
+        <v>770.6379105343158</v>
       </c>
       <c r="G207" t="n">
-        <v>778.1537297834029</v>
+        <v>778.3964947078407</v>
       </c>
       <c r="H207" t="n">
         <v>-39.02552981337736</v>
@@ -15186,16 +15186,16 @@
         <v>772.7600827221413</v>
       </c>
       <c r="D208" t="n">
-        <v>518.8965339407167</v>
+        <v>525.174859619216</v>
       </c>
       <c r="E208" t="n">
-        <v>754.6868320062446</v>
+        <v>761.3690011651654</v>
       </c>
       <c r="F208" t="n">
-        <v>768.6990312511208</v>
+        <v>768.8858744022249</v>
       </c>
       <c r="G208" t="n">
-        <v>776.6970394080233</v>
+        <v>776.9630873373231</v>
       </c>
       <c r="H208" t="n">
         <v>-137.7913782263654</v>
@@ -15257,16 +15257,16 @@
         <v>771.1493247088059</v>
       </c>
       <c r="D209" t="n">
-        <v>460.1850723089263</v>
+        <v>462.9788251372295</v>
       </c>
       <c r="E209" t="n">
-        <v>686.1147102652924</v>
+        <v>695.1934299972836</v>
       </c>
       <c r="F209" t="n">
-        <v>766.9627165455837</v>
+        <v>767.1569627403968</v>
       </c>
       <c r="G209" t="n">
-        <v>775.2621934075755</v>
+        <v>775.5356587308479</v>
       </c>
       <c r="H209" t="n">
         <v>-194.8996631414262</v>
@@ -15328,16 +15328,16 @@
         <v>769.5385666954705</v>
       </c>
       <c r="D210" t="n">
-        <v>520.362419205093</v>
+        <v>518.6393770196048</v>
       </c>
       <c r="E210" t="n">
-        <v>744.1082354799761</v>
+        <v>742.322301212901</v>
       </c>
       <c r="F210" t="n">
-        <v>765.1315426691809</v>
+        <v>765.4473948710754</v>
       </c>
       <c r="G210" t="n">
-        <v>773.8285356263328</v>
+        <v>774.1949046408043</v>
       </c>
       <c r="H210" t="n">
         <v>-140.0913322205533</v>
@@ -15399,16 +15399,16 @@
         <v>767.9278086821353</v>
       </c>
       <c r="D211" t="n">
-        <v>643.5788437442681</v>
+        <v>645.1243924025728</v>
       </c>
       <c r="E211" t="n">
-        <v>871.7322521344545</v>
+        <v>876.6727173372641</v>
       </c>
       <c r="F211" t="n">
-        <v>763.2915753921881</v>
+        <v>763.5805638566798</v>
       </c>
       <c r="G211" t="n">
-        <v>772.3591597170744</v>
+        <v>772.8347296108816</v>
       </c>
       <c r="H211" t="n">
         <v>-10.08506138840518</v>
@@ -15470,16 +15470,16 @@
         <v>766.3170506688</v>
       </c>
       <c r="D212" t="n">
-        <v>747.9726272366871</v>
+        <v>736.3122767359469</v>
       </c>
       <c r="E212" t="n">
-        <v>964.0623498262378</v>
+        <v>972.1575254749207</v>
       </c>
       <c r="F212" t="n">
-        <v>761.4510882436081</v>
+        <v>761.6938373257583</v>
       </c>
       <c r="G212" t="n">
-        <v>771.0560706275963</v>
+        <v>771.4187691905851</v>
       </c>
       <c r="H212" t="n">
         <v>90.74664103030619</v>
@@ -15541,16 +15541,16 @@
         <v>764.7062926554645</v>
       </c>
       <c r="D213" t="n">
-        <v>750.3989540049621</v>
+        <v>751.4523827266437</v>
       </c>
       <c r="E213" t="n">
-        <v>982.3776541235577</v>
+        <v>981.1995622602019</v>
       </c>
       <c r="F213" t="n">
-        <v>759.6710579248252</v>
+        <v>759.8833114942972</v>
       </c>
       <c r="G213" t="n">
-        <v>769.6162484716076</v>
+        <v>770.0167511412984</v>
       </c>
       <c r="H213" t="n">
         <v>101.2460165206826</v>
@@ -15612,16 +15612,16 @@
         <v>763.0955346421292</v>
       </c>
       <c r="D214" t="n">
-        <v>712.8490581227854</v>
+        <v>705.6109400062961</v>
       </c>
       <c r="E214" t="n">
-        <v>935.2688565412597</v>
+        <v>939.3885282507614</v>
       </c>
       <c r="F214" t="n">
-        <v>757.8636558853423</v>
+        <v>757.9818052007489</v>
       </c>
       <c r="G214" t="n">
-        <v>768.2086137018704</v>
+        <v>768.6442357764927</v>
       </c>
       <c r="H214" t="n">
         <v>57.91273502253305</v>
@@ -15683,16 +15683,16 @@
         <v>761.4847766287937</v>
       </c>
       <c r="D215" t="n">
-        <v>690.6214401623514</v>
+        <v>679.21112388676</v>
       </c>
       <c r="E215" t="n">
-        <v>902.9166171191913</v>
+        <v>915.6542448578726</v>
       </c>
       <c r="F215" t="n">
-        <v>756.0857441169907</v>
+        <v>756.134995327072</v>
       </c>
       <c r="G215" t="n">
-        <v>766.704368336074</v>
+        <v>767.2290677242073</v>
       </c>
       <c r="H215" t="n">
         <v>37.3477576110695</v>
@@ -15754,16 +15754,16 @@
         <v>759.8740186154586</v>
       </c>
       <c r="D216" t="n">
-        <v>712.4488458033882</v>
+        <v>714.8003290494566</v>
       </c>
       <c r="E216" t="n">
-        <v>932.2120028099832</v>
+        <v>945.5084932894937</v>
       </c>
       <c r="F216" t="n">
-        <v>754.2360572323298</v>
+        <v>754.300134656565</v>
       </c>
       <c r="G216" t="n">
-        <v>765.3297130779248</v>
+        <v>765.882170217622</v>
       </c>
       <c r="H216" t="n">
         <v>64.09749268343384</v>
@@ -15825,16 +15825,16 @@
         <v>758.2632606021232</v>
       </c>
       <c r="D217" t="n">
-        <v>742.5229666302542</v>
+        <v>741.3979167121396</v>
       </c>
       <c r="E217" t="n">
-        <v>960.4391389159595</v>
+        <v>969.7702725692221</v>
       </c>
       <c r="F217" t="n">
-        <v>752.3424627469266</v>
+        <v>752.5682368870658</v>
       </c>
       <c r="G217" t="n">
-        <v>763.8431797609375</v>
+        <v>764.411531714573</v>
       </c>
       <c r="H217" t="n">
         <v>93.56109741312419</v>
@@ -15896,16 +15896,16 @@
         <v>756.6525025887878</v>
       </c>
       <c r="D218" t="n">
-        <v>724.4967148764214</v>
+        <v>724.5779572208437</v>
       </c>
       <c r="E218" t="n">
-        <v>955.1138013654154</v>
+        <v>944.7330155528396</v>
       </c>
       <c r="F218" t="n">
-        <v>750.536748024907</v>
+        <v>750.7383305852426</v>
       </c>
       <c r="G218" t="n">
-        <v>762.5167710958501</v>
+        <v>762.9549944325798</v>
       </c>
       <c r="H218" t="n">
         <v>79.58831461253612</v>
@@ -15967,16 +15967,16 @@
         <v>755.0417445754524</v>
       </c>
       <c r="D219" t="n">
-        <v>669.6923324386227</v>
+        <v>668.5946232595115</v>
       </c>
       <c r="E219" t="n">
-        <v>898.8795811254204</v>
+        <v>903.9444570398907</v>
       </c>
       <c r="F219" t="n">
-        <v>748.7354176745528</v>
+        <v>748.9004802609815</v>
       </c>
       <c r="G219" t="n">
-        <v>761.1665312213573</v>
+        <v>761.564179874559</v>
       </c>
       <c r="H219" t="n">
         <v>34.22703808756836</v>
@@ -16038,16 +16038,16 @@
         <v>753.4309865621171</v>
       </c>
       <c r="D220" t="n">
-        <v>650.3288218298748</v>
+        <v>642.3750695847624</v>
       </c>
       <c r="E220" t="n">
-        <v>875.8650979477846</v>
+        <v>870.3287368209327</v>
       </c>
       <c r="F220" t="n">
-        <v>746.9343134092248</v>
+        <v>746.9974392479591</v>
       </c>
       <c r="G220" t="n">
-        <v>759.8522581042566</v>
+        <v>760.186722861007</v>
       </c>
       <c r="H220" t="n">
         <v>6.923253041229972</v>
@@ -16109,16 +16109,16 @@
         <v>751.8202285487819</v>
       </c>
       <c r="D221" t="n">
-        <v>655.7437843796857</v>
+        <v>656.0218333967493</v>
       </c>
       <c r="E221" t="n">
-        <v>878.8900981763762</v>
+        <v>885.5967093130841</v>
       </c>
       <c r="F221" t="n">
-        <v>745.1061227431901</v>
+        <v>745.1580794507502</v>
       </c>
       <c r="G221" t="n">
-        <v>758.5029554792562</v>
+        <v>758.8121344930624</v>
       </c>
       <c r="H221" t="n">
         <v>18.16081575027538</v>
@@ -16180,16 +16180,16 @@
         <v>750.2094705354464</v>
       </c>
       <c r="D222" t="n">
-        <v>686.8892286138332</v>
+        <v>672.1006305327168</v>
       </c>
       <c r="E222" t="n">
-        <v>903.212857525026</v>
+        <v>907.4917541669126</v>
       </c>
       <c r="F222" t="n">
-        <v>743.2838535132006</v>
+        <v>743.3401510562536</v>
       </c>
       <c r="G222" t="n">
-        <v>757.1546940238726</v>
+        <v>757.4594610191355</v>
       </c>
       <c r="H222" t="n">
         <v>37.13779122968853</v>
@@ -16251,16 +16251,16 @@
         <v>748.5987125221111</v>
       </c>
       <c r="D223" t="n">
-        <v>660.8239740283469</v>
+        <v>669.1097256627889</v>
       </c>
       <c r="E223" t="n">
-        <v>883.4665106002179</v>
+        <v>892.5011645024405</v>
       </c>
       <c r="F223" t="n">
-        <v>741.3561020750519</v>
+        <v>741.5063916490632</v>
       </c>
       <c r="G223" t="n">
-        <v>755.7858854690043</v>
+        <v>756.0912030511655</v>
       </c>
       <c r="H223" t="n">
         <v>29.2333919370189</v>
@@ -16322,16 +16322,16 @@
         <v>746.9879545087757</v>
       </c>
       <c r="D224" t="n">
-        <v>647.516773879952</v>
+        <v>637.8967452838542</v>
       </c>
       <c r="E224" t="n">
-        <v>861.8498416676189</v>
+        <v>864.1098836116976</v>
       </c>
       <c r="F224" t="n">
-        <v>739.4692185403293</v>
+        <v>739.7308036614942</v>
       </c>
       <c r="G224" t="n">
-        <v>754.4495146836504</v>
+        <v>754.8062501176925</v>
       </c>
       <c r="H224" t="n">
         <v>5.532867380209532</v>
@@ -16393,16 +16393,16 @@
         <v>745.3771964954404</v>
       </c>
       <c r="D225" t="n">
-        <v>639.4524526376671</v>
+        <v>641.641826112598</v>
       </c>
       <c r="E225" t="n">
-        <v>868.7914726696059</v>
+        <v>874.3822178789413</v>
       </c>
       <c r="F225" t="n">
-        <v>737.6556483554004</v>
+        <v>737.9471124412531</v>
       </c>
       <c r="G225" t="n">
-        <v>753.0619012389818</v>
+        <v>753.4829149137264</v>
       </c>
       <c r="H225" t="n">
         <v>6.316262877024245</v>
@@ -16464,16 +16464,16 @@
         <v>743.7664384821051</v>
       </c>
       <c r="D226" t="n">
-        <v>661.2001184189671</v>
+        <v>670.7720858021949</v>
       </c>
       <c r="E226" t="n">
-        <v>893.2450792350089</v>
+        <v>901.8108111184332</v>
       </c>
       <c r="F226" t="n">
-        <v>735.7770709354361</v>
+        <v>736.1488397732528</v>
       </c>
       <c r="G226" t="n">
-        <v>751.6611045098276</v>
+        <v>752.200488300481</v>
       </c>
       <c r="H226" t="n">
         <v>40.81349071842655</v>
@@ -16535,16 +16535,16 @@
         <v>742.1556804687697</v>
       </c>
       <c r="D227" t="n">
-        <v>694.5467321857302</v>
+        <v>691.6838931803886</v>
       </c>
       <c r="E227" t="n">
-        <v>914.8874666253347</v>
+        <v>916.2699628812354</v>
       </c>
       <c r="F227" t="n">
-        <v>733.9808862596235</v>
+        <v>734.3281345836161</v>
       </c>
       <c r="G227" t="n">
-        <v>750.3181821064421</v>
+        <v>750.8648282004179</v>
       </c>
       <c r="H227" t="n">
         <v>65.80203586946494</v>
@@ -16606,16 +16606,16 @@
         <v>740.5449224554344</v>
       </c>
       <c r="D228" t="n">
-        <v>669.372655519127</v>
+        <v>662.7564080178274</v>
       </c>
       <c r="E228" t="n">
-        <v>888.9653786356542</v>
+        <v>896.4506360915594</v>
       </c>
       <c r="F228" t="n">
-        <v>732.1155406467932</v>
+        <v>732.5042444790362</v>
       </c>
       <c r="G228" t="n">
-        <v>749.0112600482433</v>
+        <v>749.4829950888986</v>
       </c>
       <c r="H228" t="n">
         <v>35.90694770196666</v>
@@ -16677,16 +16677,16 @@
         <v>738.9341644420989</v>
       </c>
       <c r="D229" t="n">
-        <v>586.185161661004</v>
+        <v>591.5597198448612</v>
       </c>
       <c r="E229" t="n">
-        <v>810.6123904123807</v>
+        <v>815.807862764271</v>
       </c>
       <c r="F229" t="n">
-        <v>730.1824501462723</v>
+        <v>730.6294611387516</v>
       </c>
       <c r="G229" t="n">
-        <v>747.6893529454945</v>
+        <v>748.2305103081947</v>
       </c>
       <c r="H229" t="n">
         <v>-36.45430747611424</v>
@@ -16748,16 +16748,16 @@
         <v>737.3234064287637</v>
       </c>
       <c r="D230" t="n">
-        <v>527.7590354394495</v>
+        <v>535.99751651897</v>
       </c>
       <c r="E230" t="n">
-        <v>762.9155733386102</v>
+        <v>762.1924629804435</v>
       </c>
       <c r="F230" t="n">
-        <v>728.3158896931365</v>
+        <v>728.8273694212281</v>
       </c>
       <c r="G230" t="n">
-        <v>746.3301810947129</v>
+        <v>746.7199348671836</v>
       </c>
       <c r="H230" t="n">
         <v>-89.43909828817887</v>
@@ -16819,16 +16819,16 @@
         <v>735.7126484154282</v>
       </c>
       <c r="D231" t="n">
-        <v>543.7753256562</v>
+        <v>542.1025194313644</v>
       </c>
       <c r="E231" t="n">
-        <v>767.9482262820544</v>
+        <v>772.1202688672885</v>
       </c>
       <c r="F231" t="n">
-        <v>726.5191405678406</v>
+        <v>727.0768160728497</v>
       </c>
       <c r="G231" t="n">
-        <v>744.9635429065671</v>
+        <v>745.2578975172156</v>
       </c>
       <c r="H231" t="n">
         <v>-81.30350553087344</v>
@@ -16890,16 +16890,16 @@
         <v>734.101890402093</v>
       </c>
       <c r="D232" t="n">
-        <v>571.74160272633</v>
+        <v>586.2963278781583</v>
       </c>
       <c r="E232" t="n">
-        <v>804.0735535065573</v>
+        <v>818.8105701769758</v>
       </c>
       <c r="F232" t="n">
-        <v>724.6495099407776</v>
+        <v>725.1917655943736</v>
       </c>
       <c r="G232" t="n">
-        <v>743.5581848024627</v>
+        <v>743.7717015349475</v>
       </c>
       <c r="H232" t="n">
         <v>-36.47830403169812</v>
@@ -16961,16 +16961,16 @@
         <v>732.4911323887576</v>
       </c>
       <c r="D233" t="n">
-        <v>606.0573893758964</v>
+        <v>612.6072177715309</v>
       </c>
       <c r="E233" t="n">
-        <v>835.1968276265926</v>
+        <v>826.825509913609</v>
       </c>
       <c r="F233" t="n">
-        <v>722.7546555254818</v>
+        <v>723.2934225731889</v>
       </c>
       <c r="G233" t="n">
-        <v>742.1620481475915</v>
+        <v>742.3433717178641</v>
       </c>
       <c r="H233" t="n">
         <v>-12.76379546656246</v>
@@ -17032,16 +17032,16 @@
         <v>730.8803743754223</v>
       </c>
       <c r="D234" t="n">
-        <v>585.9806124390052</v>
+        <v>587.3403288316426</v>
       </c>
       <c r="E234" t="n">
-        <v>812.3907771557737</v>
+        <v>827.7167219801094</v>
       </c>
       <c r="F234" t="n">
-        <v>720.9465881303839</v>
+        <v>721.414495183737</v>
       </c>
       <c r="G234" t="n">
-        <v>740.7253445686219</v>
+        <v>741.1179787153374</v>
       </c>
       <c r="H234" t="n">
         <v>-32.30143422568602</v>
@@ -17103,16 +17103,16 @@
         <v>729.2696163620869</v>
       </c>
       <c r="D235" t="n">
-        <v>562.0036650094092</v>
+        <v>547.0705538077943</v>
       </c>
       <c r="E235" t="n">
-        <v>781.5551215131931</v>
+        <v>780.9012268050369</v>
       </c>
       <c r="F235" t="n">
-        <v>719.1714341332167</v>
+        <v>719.4901305813239</v>
       </c>
       <c r="G235" t="n">
-        <v>739.4611020857333</v>
+        <v>739.8984416868473</v>
       </c>
       <c r="H235" t="n">
         <v>-61.273314809886</v>
@@ -17174,16 +17174,16 @@
         <v>727.6588583487516</v>
       </c>
       <c r="D236" t="n">
-        <v>559.2051383343951</v>
+        <v>543.4772567378432</v>
       </c>
       <c r="E236" t="n">
-        <v>775.1622604554843</v>
+        <v>776.7369687991569</v>
       </c>
       <c r="F236" t="n">
-        <v>717.3023678920503</v>
+        <v>717.596139954235</v>
       </c>
       <c r="G236" t="n">
-        <v>738.0931596908116</v>
+        <v>738.499024768127</v>
       </c>
       <c r="H236" t="n">
         <v>-58.44407527027067</v>
@@ -17245,16 +17245,16 @@
         <v>726.0481003354163</v>
       </c>
       <c r="D237" t="n">
-        <v>580.1857428567729</v>
+        <v>587.2555677703396</v>
       </c>
       <c r="E237" t="n">
-        <v>811.1979331226631</v>
+        <v>808.8509692433735</v>
       </c>
       <c r="F237" t="n">
-        <v>715.2823090474076</v>
+        <v>715.6533727570127</v>
       </c>
       <c r="G237" t="n">
-        <v>736.8275993008954</v>
+        <v>737.2646432163128</v>
       </c>
       <c r="H237" t="n">
         <v>-26.48565634809939</v>
@@ -17316,16 +17316,16 @@
         <v>724.4373423220808</v>
       </c>
       <c r="D238" t="n">
-        <v>605.216807139131</v>
+        <v>611.2837096501198</v>
       </c>
       <c r="E238" t="n">
-        <v>841.6148553798915</v>
+        <v>847.4863352336611</v>
       </c>
       <c r="F238" t="n">
-        <v>713.4363935589257</v>
+        <v>713.6941081952051</v>
       </c>
       <c r="G238" t="n">
-        <v>735.5049275389832</v>
+        <v>735.8070114648131</v>
       </c>
       <c r="H238" t="n">
         <v>-2.270027649335013</v>
@@ -17387,16 +17387,16 @@
         <v>722.8265843087456</v>
       </c>
       <c r="D239" t="n">
-        <v>603.857350587787</v>
+        <v>598.9904992604512</v>
       </c>
       <c r="E239" t="n">
-        <v>836.3028831971443</v>
+        <v>826.5671503202834</v>
       </c>
       <c r="F239" t="n">
-        <v>711.5495429518461</v>
+        <v>711.8722183483995</v>
       </c>
       <c r="G239" t="n">
-        <v>734.0924722098</v>
+        <v>734.6655969676924</v>
       </c>
       <c r="H239" t="n">
         <v>-5.428712118674341</v>
@@ -17458,16 +17458,16 @@
         <v>721.2158262954101</v>
       </c>
       <c r="D240" t="n">
-        <v>592.2198326426262</v>
+        <v>580.7334196478887</v>
       </c>
       <c r="E240" t="n">
-        <v>819.5830773471693</v>
+        <v>817.3922515334664</v>
       </c>
       <c r="F240" t="n">
-        <v>709.7030869921515</v>
+        <v>709.8841681301935</v>
       </c>
       <c r="G240" t="n">
-        <v>732.8115359444711</v>
+        <v>733.3932928544816</v>
       </c>
       <c r="H240" t="n">
         <v>-17.01027593556696</v>
@@ -17529,16 +17529,16 @@
         <v>719.6050682820749</v>
       </c>
       <c r="D241" t="n">
-        <v>593.8004401183109</v>
+        <v>589.5389477741791</v>
       </c>
       <c r="E241" t="n">
-        <v>818.9147296423623</v>
+        <v>822.2278895785118</v>
       </c>
       <c r="F241" t="n">
-        <v>707.7413248607786</v>
+        <v>708.0198606347294</v>
       </c>
       <c r="G241" t="n">
-        <v>731.3467598414709</v>
+        <v>732.1159531636544</v>
       </c>
       <c r="H241" t="n">
         <v>-14.54639472425862</v>
@@ -17600,16 +17600,16 @@
         <v>717.9943102687395</v>
       </c>
       <c r="D242" t="n">
-        <v>598.7595267059762</v>
+        <v>593.9458817347294</v>
       </c>
       <c r="E242" t="n">
-        <v>825.7164242975002</v>
+        <v>823.9593310922753</v>
       </c>
       <c r="F242" t="n">
-        <v>705.9821887881111</v>
+        <v>706.1672770982847</v>
       </c>
       <c r="G242" t="n">
-        <v>729.8803073457356</v>
+        <v>730.8363798895818</v>
       </c>
       <c r="H242" t="n">
         <v>-10.33175425594353</v>
@@ -17671,16 +17671,16 @@
         <v>716.3835522554042</v>
       </c>
       <c r="D243" t="n">
-        <v>573.2981394525768</v>
+        <v>572.9994258586767</v>
       </c>
       <c r="E243" t="n">
-        <v>797.0342640404607</v>
+        <v>798.9780941037141</v>
       </c>
       <c r="F243" t="n">
-        <v>704.1629170126132</v>
+        <v>704.1850954523574</v>
       </c>
       <c r="G243" t="n">
-        <v>728.5516215898092</v>
+        <v>729.5512497763106</v>
       </c>
       <c r="H243" t="n">
         <v>-34.95010499995158</v>
@@ -17742,16 +17742,16 @@
         <v>714.7727942420689</v>
       </c>
       <c r="D244" t="n">
-        <v>516.1671951939387</v>
+        <v>517.4492464997546</v>
       </c>
       <c r="E244" t="n">
-        <v>737.4118825007337</v>
+        <v>745.7979938510999</v>
       </c>
       <c r="F244" t="n">
-        <v>702.2748578185099</v>
+        <v>702.4410057714435</v>
       </c>
       <c r="G244" t="n">
-        <v>727.2733564803553</v>
+        <v>728.2955288343079</v>
       </c>
       <c r="H244" t="n">
         <v>-85.53065999806326</v>
@@ -17813,16 +17813,16 @@
         <v>713.1620362287335</v>
       </c>
       <c r="D245" t="n">
-        <v>480.0547618545382</v>
+        <v>477.2921471197824</v>
       </c>
       <c r="E245" t="n">
-        <v>719.467040963694</v>
+        <v>718.4384029639584</v>
       </c>
       <c r="F245" t="n">
-        <v>700.3241787902533</v>
+        <v>700.4777560788127</v>
       </c>
       <c r="G245" t="n">
-        <v>725.9274287523447</v>
+        <v>727.0619814822551</v>
       </c>
       <c r="H245" t="n">
         <v>-112.7391767411617</v>
@@ -17884,16 +17884,16 @@
         <v>711.5512782153982</v>
       </c>
       <c r="D246" t="n">
-        <v>511.9846312081661</v>
+        <v>521.5441876198038</v>
       </c>
       <c r="E246" t="n">
-        <v>750.5452189940029</v>
+        <v>755.0159367331961</v>
       </c>
       <c r="F246" t="n">
-        <v>698.3053587582297</v>
+        <v>698.6455418344614</v>
       </c>
       <c r="G246" t="n">
-        <v>724.6298535230352</v>
+        <v>725.7395272958987</v>
       </c>
       <c r="H246" t="n">
         <v>-74.1943609900884</v>
@@ -17955,16 +17955,16 @@
         <v>709.9405202020628</v>
       </c>
       <c r="D247" t="n">
-        <v>602.3767950841275</v>
+        <v>608.4052499100329</v>
       </c>
       <c r="E247" t="n">
-        <v>834.7800054181793</v>
+        <v>825.5191814843342</v>
       </c>
       <c r="F247" t="n">
-        <v>696.4402312619018</v>
+        <v>696.8140711036044</v>
       </c>
       <c r="G247" t="n">
-        <v>723.3233206629434</v>
+        <v>724.3971775978549</v>
       </c>
       <c r="H247" t="n">
         <v>8.54578772304111</v>
@@ -18026,16 +18026,16 @@
         <v>708.3297621887275</v>
       </c>
       <c r="D248" t="n">
-        <v>664.2268272701084</v>
+        <v>645.6869456660113</v>
       </c>
       <c r="E248" t="n">
-        <v>894.812056375365</v>
+        <v>884.6219411406666</v>
       </c>
       <c r="F248" t="n">
-        <v>694.5614936095393</v>
+        <v>694.7148314889685</v>
       </c>
       <c r="G248" t="n">
-        <v>722.0271142467603</v>
+        <v>723.0718679637511</v>
       </c>
       <c r="H248" t="n">
         <v>66.00196594998519</v>
@@ -18097,16 +18097,16 @@
         <v>706.7190041753922</v>
       </c>
       <c r="D249" t="n">
-        <v>650.7828991265013</v>
+        <v>653.6342684468073</v>
       </c>
       <c r="E249" t="n">
-        <v>876.4334783396787</v>
+        <v>885.5682266545643</v>
       </c>
       <c r="F249" t="n">
-        <v>692.6389593934033</v>
+        <v>693.0284745353238</v>
       </c>
       <c r="G249" t="n">
-        <v>720.6808258959845</v>
+        <v>721.7527978105903</v>
       </c>
       <c r="H249" t="n">
         <v>57.7846837163195</v>
@@ -18168,16 +18168,16 @@
         <v>705.1082461620567</v>
       </c>
       <c r="D250" t="n">
-        <v>608.2483594615472</v>
+        <v>603.9063933776129</v>
       </c>
       <c r="E250" t="n">
-        <v>828.737866117861</v>
+        <v>839.0038593774823</v>
       </c>
       <c r="F250" t="n">
-        <v>690.6861942557532</v>
+        <v>691.0947613268272</v>
       </c>
       <c r="G250" t="n">
-        <v>719.3856873533595</v>
+        <v>720.5272044909292</v>
       </c>
       <c r="H250" t="n">
         <v>17.87682903492209</v>
@@ -18239,16 +18239,16 @@
         <v>703.4974881487215</v>
       </c>
       <c r="D251" t="n">
-        <v>596.8813925820748</v>
+        <v>597.6401659584582</v>
       </c>
       <c r="E251" t="n">
-        <v>824.7761143346586</v>
+        <v>825.7169496311209</v>
       </c>
       <c r="F251" t="n">
-        <v>688.8352438046487</v>
+        <v>689.2230138146456</v>
       </c>
       <c r="G251" t="n">
-        <v>718.1512915188242</v>
+        <v>719.3125156044579</v>
       </c>
       <c r="H251" t="n">
         <v>9.900100965639657</v>
@@ -18310,16 +18310,16 @@
         <v>701.8867301353861</v>
       </c>
       <c r="D252" t="n">
-        <v>633.2671616043449</v>
+        <v>638.6510128960913</v>
       </c>
       <c r="E252" t="n">
-        <v>869.0007056999575</v>
+        <v>864.9717765572467</v>
       </c>
       <c r="F252" t="n">
-        <v>686.9884293016928</v>
+        <v>687.2634362981007</v>
       </c>
       <c r="G252" t="n">
-        <v>716.7793434987977</v>
+        <v>718.0867790275749</v>
       </c>
       <c r="H252" t="n">
         <v>46.0304616650609</v>
@@ -18381,16 +18381,16 @@
         <v>700.2759721220508</v>
       </c>
       <c r="D253" t="n">
-        <v>659.0935054284848</v>
+        <v>654.9423165489952</v>
       </c>
       <c r="E253" t="n">
-        <v>882.2340103839728</v>
+        <v>889.6370517828055</v>
       </c>
       <c r="F253" t="n">
-        <v>685.1748595674317</v>
+        <v>685.4287815342968</v>
       </c>
       <c r="G253" t="n">
-        <v>715.419369150047</v>
+        <v>716.8205489654647</v>
       </c>
       <c r="H253" t="n">
         <v>71.65192371021284</v>
@@ -18452,16 +18452,16 @@
         <v>698.6652141087154</v>
       </c>
       <c r="D254" t="n">
-        <v>627.3748338771802</v>
+        <v>619.988403007075</v>
       </c>
       <c r="E254" t="n">
-        <v>851.7668403617223</v>
+        <v>857.0031090726767</v>
       </c>
       <c r="F254" t="n">
-        <v>683.2377907596027</v>
+        <v>683.4863589992846</v>
       </c>
       <c r="G254" t="n">
-        <v>714.0486733875688</v>
+        <v>715.5171633016078</v>
       </c>
       <c r="H254" t="n">
         <v>37.0546841516725</v>
@@ -18523,16 +18523,16 @@
         <v>697.05445609538</v>
       </c>
       <c r="D255" t="n">
-        <v>549.7811188530883</v>
+        <v>548.7955097679629</v>
       </c>
       <c r="E255" t="n">
-        <v>777.1359675983564</v>
+        <v>774.930224551998</v>
       </c>
       <c r="F255" t="n">
-        <v>681.3465326110819</v>
+        <v>681.4579047782063</v>
       </c>
       <c r="G255" t="n">
-        <v>712.8408010059298</v>
+        <v>714.2255561793587</v>
       </c>
       <c r="H255" t="n">
         <v>-34.03388318273664</v>
@@ -18594,16 +18594,16 @@
         <v>695.4436980820446</v>
       </c>
       <c r="D256" t="n">
-        <v>511.1399956922382</v>
+        <v>515.3883461124983</v>
       </c>
       <c r="E256" t="n">
-        <v>745.6546919340623</v>
+        <v>746.2154773614792</v>
       </c>
       <c r="F256" t="n">
-        <v>679.4724897071598</v>
+        <v>679.392475844083</v>
       </c>
       <c r="G256" t="n">
-        <v>711.692000924467</v>
+        <v>712.8267652921018</v>
       </c>
       <c r="H256" t="n">
         <v>-69.11737565573489</v>
@@ -18665,16 +18665,16 @@
         <v>693.8329400687094</v>
       </c>
       <c r="D257" t="n">
-        <v>530.9279201892124</v>
+        <v>540.7400663756757</v>
       </c>
       <c r="E257" t="n">
-        <v>773.2699380249638</v>
+        <v>769.9870578415241</v>
       </c>
       <c r="F257" t="n">
-        <v>677.5544823107037</v>
+        <v>677.4787949907634</v>
       </c>
       <c r="G257" t="n">
-        <v>710.4069802422051</v>
+        <v>711.6355069819232</v>
       </c>
       <c r="H257" t="n">
         <v>-38.33453686957056</v>
@@ -18736,16 +18736,16 @@
         <v>692.2221820553741</v>
       </c>
       <c r="D258" t="n">
-        <v>580.1870026099801</v>
+        <v>572.3700856811337</v>
       </c>
       <c r="E258" t="n">
-        <v>806.7460870284093</v>
+        <v>808.2166269406933</v>
       </c>
       <c r="F258" t="n">
-        <v>675.5982389189336</v>
+        <v>675.5717821270329</v>
       </c>
       <c r="G258" t="n">
-        <v>709.0937024438687</v>
+        <v>710.457860636487</v>
       </c>
       <c r="H258" t="n">
         <v>2.096654004217155</v>
@@ -18807,16 +18807,16 @@
         <v>690.6114240420386</v>
       </c>
       <c r="D259" t="n">
-        <v>546.7711447661526</v>
+        <v>548.3314294902004</v>
       </c>
       <c r="E259" t="n">
-        <v>778.9352617164811</v>
+        <v>779.214187283026</v>
       </c>
       <c r="F259" t="n">
-        <v>673.6436668792834</v>
+        <v>673.7579201735986</v>
       </c>
       <c r="G259" t="n">
-        <v>707.7576955443182</v>
+        <v>709.1904756661357</v>
       </c>
       <c r="H259" t="n">
         <v>-25.28998389853941</v>
@@ -18878,16 +18878,16 @@
         <v>689.0006660287033</v>
       </c>
       <c r="D260" t="n">
-        <v>450.0832259676985</v>
+        <v>459.4034437767707</v>
       </c>
       <c r="E260" t="n">
-        <v>689.0384844665522</v>
+        <v>680.4313658389625</v>
       </c>
       <c r="F260" t="n">
-        <v>671.6890948396333</v>
+        <v>671.8536219055094</v>
       </c>
       <c r="G260" t="n">
-        <v>706.4497911149157</v>
+        <v>707.9082565894553</v>
       </c>
       <c r="H260" t="n">
         <v>-120.0393203383701</v>
@@ -18949,16 +18949,16 @@
         <v>687.3899080153678</v>
       </c>
       <c r="D261" t="n">
-        <v>377.5215741442495</v>
+        <v>386.4440772366964</v>
       </c>
       <c r="E261" t="n">
-        <v>612.7911423291285</v>
+        <v>608.9294822151082</v>
       </c>
       <c r="F261" t="n">
-        <v>669.7886804374265</v>
+        <v>669.9348564102322</v>
       </c>
       <c r="G261" t="n">
-        <v>705.1696446636796</v>
+        <v>706.6200678196744</v>
       </c>
       <c r="H261" t="n">
         <v>-192.1125036663891</v>
@@ -19020,16 +19020,16 @@
         <v>685.7791500020327</v>
       </c>
       <c r="D262" t="n">
-        <v>407.8332071357895</v>
+        <v>412.5747743620971</v>
       </c>
       <c r="E262" t="n">
-        <v>647.0200274868113</v>
+        <v>643.9272147894487</v>
       </c>
       <c r="F262" t="n">
-        <v>667.8887510395037</v>
+        <v>668.0381802190352</v>
       </c>
       <c r="G262" t="n">
-        <v>703.8033151082924</v>
+        <v>705.1688394299823</v>
       </c>
       <c r="H262" t="n">
         <v>-157.9005060952578</v>
@@ -19091,16 +19091,16 @@
         <v>684.1683919886973</v>
       </c>
       <c r="D263" t="n">
-        <v>535.9548937078345</v>
+        <v>535.463644845413</v>
       </c>
       <c r="E263" t="n">
-        <v>758.3419030787695</v>
+        <v>770.5334988585089</v>
       </c>
       <c r="F263" t="n">
-        <v>665.9772730250885</v>
+        <v>666.041108014961</v>
       </c>
       <c r="G263" t="n">
-        <v>702.6127750029023</v>
+        <v>704.0236057833522</v>
       </c>
       <c r="H263" t="n">
         <v>-34.23762469930515</v>
@@ -19162,16 +19162,16 @@
         <v>682.5576339753619</v>
       </c>
       <c r="D264" t="n">
-        <v>649.1119475925142</v>
+        <v>638.3361604841605</v>
       </c>
       <c r="E264" t="n">
-        <v>879.9613219580787</v>
+        <v>872.3375684149872</v>
       </c>
       <c r="F264" t="n">
-        <v>664.0254758394955</v>
+        <v>664.1068666688951</v>
       </c>
       <c r="G264" t="n">
-        <v>701.2796093976656</v>
+        <v>702.7689724578394</v>
       </c>
       <c r="H264" t="n">
         <v>78.89198858747027</v>
@@ -19233,16 +19233,16 @@
         <v>680.9468759620265</v>
       </c>
       <c r="D265" t="n">
-        <v>667.5556483317737</v>
+        <v>669.0439899810808</v>
       </c>
       <c r="E265" t="n">
-        <v>900.9701520904896</v>
+        <v>900.8817179181559</v>
       </c>
       <c r="F265" t="n">
-        <v>662.0591996587881</v>
+        <v>662.1626790789336</v>
       </c>
       <c r="G265" t="n">
-        <v>699.9342838641475</v>
+        <v>701.4802036451778</v>
       </c>
       <c r="H265" t="n">
         <v>105.4764215410273</v>
@@ -19304,16 +19304,16 @@
         <v>679.3361179486913</v>
       </c>
       <c r="D266" t="n">
-        <v>631.1919257820543</v>
+        <v>629.4056414451367</v>
       </c>
       <c r="E266" t="n">
-        <v>858.1989524093287</v>
+        <v>863.6545696067477</v>
       </c>
       <c r="F266" t="n">
-        <v>660.1043936536331</v>
+        <v>660.2420581095935</v>
       </c>
       <c r="G266" t="n">
-        <v>698.5938453939804</v>
+        <v>700.3748134807878</v>
       </c>
       <c r="H266" t="n">
         <v>65.93128906781374</v>
@@ -19375,16 +19375,16 @@
         <v>677.725359935356</v>
       </c>
       <c r="D267" t="n">
-        <v>599.7188517840191</v>
+        <v>587.0017035955759</v>
       </c>
       <c r="E267" t="n">
-        <v>820.9631221008119</v>
+        <v>829.0872895014769</v>
       </c>
       <c r="F267" t="n">
-        <v>658.1504691474291</v>
+        <v>658.3263892776891</v>
       </c>
       <c r="G267" t="n">
-        <v>697.2441314814616</v>
+        <v>698.9761622822867</v>
       </c>
       <c r="H267" t="n">
         <v>37.14945477461357</v>
@@ -19446,16 +19446,16 @@
         <v>676.1146019220205</v>
       </c>
       <c r="D268" t="n">
-        <v>618.0455206029357</v>
+        <v>618.6454260821461</v>
       </c>
       <c r="E268" t="n">
-        <v>843.9819055664861</v>
+        <v>843.636549443952</v>
       </c>
       <c r="F268" t="n">
-        <v>656.1957654576514</v>
+        <v>656.4826789891991</v>
       </c>
       <c r="G268" t="n">
-        <v>696.0337058251173</v>
+        <v>697.7407435701118</v>
       </c>
       <c r="H268" t="n">
         <v>57.30944318304276</v>
@@ -19517,16 +19517,16 @@
         <v>674.5038439086852</v>
       </c>
       <c r="D269" t="n">
-        <v>641.2329260693808</v>
+        <v>642.6970264215606</v>
       </c>
       <c r="E269" t="n">
-        <v>876.7624538516338</v>
+        <v>882.9868602680306</v>
       </c>
       <c r="F269" t="n">
-        <v>654.2025769327805</v>
+        <v>654.4758162889117</v>
       </c>
       <c r="G269" t="n">
-        <v>694.8469141416413</v>
+        <v>696.368174517806</v>
       </c>
       <c r="H269" t="n">
         <v>90.76150806357413</v>
@@ -19588,16 +19588,16 @@
         <v>672.8930858953499</v>
       </c>
       <c r="D270" t="n">
-        <v>634.7915235569661</v>
+        <v>656.7302901566864</v>
       </c>
       <c r="E270" t="n">
-        <v>870.0604970384826</v>
+        <v>878.0843313454842</v>
       </c>
       <c r="F270" t="n">
-        <v>652.1859575439653</v>
+        <v>652.4577704998138</v>
       </c>
       <c r="G270" t="n">
-        <v>693.5897988087637</v>
+        <v>694.9968046871376</v>
       </c>
       <c r="H270" t="n">
         <v>85.57222118947648</v>
@@ -19659,16 +19659,16 @@
         <v>671.2823278820146</v>
       </c>
       <c r="D271" t="n">
-        <v>595.4076834887743</v>
+        <v>590.6014409960313</v>
       </c>
       <c r="E271" t="n">
-        <v>825.5346983527292</v>
+        <v>837.2947956006532</v>
       </c>
       <c r="F271" t="n">
-        <v>650.0802765593194</v>
+        <v>650.3895389963393</v>
       </c>
       <c r="G271" t="n">
-        <v>692.3154708679707</v>
+        <v>693.830369781256</v>
       </c>
       <c r="H271" t="n">
         <v>42.40950415716738</v>
@@ -19730,16 +19730,16 @@
         <v>669.6715698686792</v>
       </c>
       <c r="D272" t="n">
-        <v>566.8314849318335</v>
+        <v>567.6961813496687</v>
       </c>
       <c r="E272" t="n">
-        <v>797.1779109009711</v>
+        <v>794.4255559129741</v>
       </c>
       <c r="F272" t="n">
-        <v>648.1427056509832</v>
+        <v>648.3523908191837</v>
       </c>
       <c r="G272" t="n">
-        <v>690.9913457421218</v>
+        <v>692.6789534398408</v>
       </c>
       <c r="H272" t="n">
         <v>8.794570180605163</v>
@@ -19801,16 +19801,16 @@
         <v>668.0608118553438</v>
       </c>
       <c r="D273" t="n">
-        <v>562.4112992305744</v>
+        <v>566.1737816241123</v>
       </c>
       <c r="E273" t="n">
-        <v>797.2410964721582</v>
+        <v>806.1049182298528</v>
       </c>
       <c r="F273" t="n">
-        <v>646.1614380893722</v>
+        <v>646.4340856380875</v>
       </c>
       <c r="G273" t="n">
-        <v>689.6639935316383</v>
+        <v>691.2965050848861</v>
       </c>
       <c r="H273" t="n">
         <v>14.25348218438692</v>
@@ -19872,16 +19872,16 @@
         <v>666.4500538420084</v>
       </c>
       <c r="D274" t="n">
-        <v>581.3978453728896</v>
+        <v>590.820804400887</v>
       </c>
       <c r="E274" t="n">
-        <v>812.5492223062777</v>
+        <v>815.9173612671069</v>
       </c>
       <c r="F274" t="n">
-        <v>644.0858058552747</v>
+        <v>644.424782177064</v>
       </c>
       <c r="G274" t="n">
-        <v>688.4276285065258</v>
+        <v>689.9327948138774</v>
       </c>
       <c r="H274" t="n">
         <v>35.17437362849952</v>
@@ -19943,16 +19943,16 @@
         <v>664.8392958286731</v>
       </c>
       <c r="D275" t="n">
-        <v>584.3485007526425</v>
+        <v>584.6998589640599</v>
       </c>
       <c r="E275" t="n">
-        <v>817.5180744953329</v>
+        <v>808.5056647615086</v>
       </c>
       <c r="F275" t="n">
-        <v>642.007046273683</v>
+        <v>642.3602099705931</v>
       </c>
       <c r="G275" t="n">
-        <v>687.1856818815651</v>
+        <v>688.6808002318071</v>
       </c>
       <c r="H275" t="n">
         <v>32.8068241147226</v>
@@ -20014,16 +20014,16 @@
         <v>663.2285378153379</v>
       </c>
       <c r="D276" t="n">
-        <v>557.5578054944746</v>
+        <v>556.4156607869132</v>
       </c>
       <c r="E276" t="n">
-        <v>793.3356927086784</v>
+        <v>780.1659352772813</v>
       </c>
       <c r="F276" t="n">
-        <v>640.0797302541843</v>
+        <v>640.4955803962724</v>
       </c>
       <c r="G276" t="n">
-        <v>685.9570760985006</v>
+        <v>687.3252383844163</v>
       </c>
       <c r="H276" t="n">
         <v>9.064787141002347</v>
@@ -20085,16 +20085,16 @@
         <v>661.6177798020024</v>
       </c>
       <c r="D277" t="n">
-        <v>556.735826808474</v>
+        <v>543.5583650256823</v>
       </c>
       <c r="E277" t="n">
-        <v>788.7294928478416</v>
+        <v>778.8588375757453</v>
       </c>
       <c r="F277" t="n">
-        <v>638.2621580914459</v>
+        <v>638.3864770120093</v>
       </c>
       <c r="G277" t="n">
-        <v>684.7247642177456</v>
+        <v>686.2184490102106</v>
       </c>
       <c r="H277" t="n">
         <v>3.190178624734094</v>
@@ -20156,16 +20156,16 @@
         <v>660.0070217886671</v>
       </c>
       <c r="D278" t="n">
-        <v>575.0862472509396</v>
+        <v>569.759154154203</v>
       </c>
       <c r="E278" t="n">
-        <v>806.9980356342405</v>
+        <v>814.7172617686483</v>
       </c>
       <c r="F278" t="n">
-        <v>636.3854788860816</v>
+        <v>636.3222234499518</v>
       </c>
       <c r="G278" t="n">
-        <v>683.4662009484369</v>
+        <v>685.2638352239827</v>
       </c>
       <c r="H278" t="n">
         <v>33.64410117443912</v>
@@ -20227,16 +20227,16 @@
         <v>658.3962637753317</v>
       </c>
       <c r="D279" t="n">
-        <v>611.3060995035962</v>
+        <v>609.8166544827666</v>
       </c>
       <c r="E279" t="n">
-        <v>839.6676130349433</v>
+        <v>835.6864226733748</v>
       </c>
       <c r="F279" t="n">
-        <v>634.2887647761981</v>
+        <v>634.1452270336964</v>
       </c>
       <c r="G279" t="n">
-        <v>682.1136689854691</v>
+        <v>684.3558577753396</v>
       </c>
       <c r="H279" t="n">
         <v>64.59272536996461</v>
